--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_10_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_10_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1855444.495858438</v>
+        <v>-1856157.100332479</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169821.4284147701</v>
+        <v>169821.42841477</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058546</v>
+        <v>632041.4518058543</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15153566.09454418</v>
+        <v>15153566.09454419</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>35.63879393784995</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>159.442510317672</v>
+      </c>
+      <c r="E11" t="n">
         <v>188.5623770505815</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>168.6883080494462</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.66716559384203</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.17968824550874</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13476116065507</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>37.08750778771194</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.5668145012116</v>
       </c>
       <c r="X11" t="n">
-        <v>181.4530649701509</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.188502199810728</v>
+        <v>68.49688683633521</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1464,13 +1464,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.846506480668513</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S12" t="n">
-        <v>13.25780256851671</v>
+        <v>13.25780256851665</v>
       </c>
       <c r="T12" t="n">
-        <v>188.5623770505815</v>
+        <v>36.64054962134804</v>
       </c>
       <c r="U12" t="n">
-        <v>83.21965190246419</v>
+        <v>58.89840834437492</v>
       </c>
       <c r="V12" t="n">
-        <v>62.31927159084705</v>
+        <v>62.31927159084699</v>
       </c>
       <c r="W12" t="n">
-        <v>88.3749342524564</v>
+        <v>88.37493425245634</v>
       </c>
       <c r="X12" t="n">
-        <v>38.98326511491541</v>
+        <v>38.98326511491535</v>
       </c>
       <c r="Y12" t="n">
-        <v>188.5623770505815</v>
+        <v>45.05463680947037</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.09353465650167</v>
+        <v>25.09353465650161</v>
       </c>
       <c r="S13" t="n">
-        <v>57.10576830412747</v>
+        <v>57.10576830412742</v>
       </c>
       <c r="T13" t="n">
-        <v>45.43126511605263</v>
+        <v>45.43126511605257</v>
       </c>
       <c r="U13" t="n">
-        <v>110.3268994226098</v>
+        <v>110.3268994226097</v>
       </c>
       <c r="V13" t="n">
-        <v>66.77936585989471</v>
+        <v>66.77936585989465</v>
       </c>
       <c r="W13" t="n">
         <v>111.9810577647801</v>
       </c>
       <c r="X13" t="n">
-        <v>43.58980608368734</v>
+        <v>43.58980608368728</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.81162348961323</v>
+        <v>38.81162348961317</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>171.8758480566236</v>
       </c>
       <c r="D14" t="n">
-        <v>130.1889187439441</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>188.5623770505815</v>
       </c>
       <c r="H14" t="n">
-        <v>168.6883080494462</v>
+        <v>168.6883080494461</v>
       </c>
       <c r="I14" t="n">
-        <v>62.66716559384203</v>
+        <v>62.66716559384199</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.53078872718775</v>
+        <v>16.53078872718771</v>
       </c>
       <c r="S14" t="n">
-        <v>49.17968824550874</v>
+        <v>49.17968824550869</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13476116065509</v>
+        <v>44.13476116065502</v>
       </c>
       <c r="U14" t="n">
-        <v>71.82086528673105</v>
+        <v>30.13393597405243</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1686,16 +1686,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.188502199810728</v>
+        <v>9.188502199810671</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>65.67278568525494</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.846506480668513</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S15" t="n">
-        <v>46.37814801728288</v>
+        <v>13.25780256851665</v>
       </c>
       <c r="T15" t="n">
-        <v>188.5623770505815</v>
+        <v>36.64054962134804</v>
       </c>
       <c r="U15" t="n">
-        <v>58.89840834437498</v>
+        <v>58.89840834437492</v>
       </c>
       <c r="V15" t="n">
-        <v>62.31927159084705</v>
+        <v>62.31927159084699</v>
       </c>
       <c r="W15" t="n">
-        <v>88.3749342524564</v>
+        <v>88.37493425245634</v>
       </c>
       <c r="X15" t="n">
-        <v>38.98326511491541</v>
+        <v>38.98326511491535</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.05463680947042</v>
+        <v>45.05463680947037</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.09353465650167</v>
+        <v>25.09353465650161</v>
       </c>
       <c r="S16" t="n">
-        <v>57.10576830412747</v>
+        <v>57.10576830412742</v>
       </c>
       <c r="T16" t="n">
-        <v>45.43126511605263</v>
+        <v>45.43126511605257</v>
       </c>
       <c r="U16" t="n">
-        <v>110.3268994226098</v>
+        <v>110.3268994226097</v>
       </c>
       <c r="V16" t="n">
-        <v>66.77936585989471</v>
+        <v>66.77936585989465</v>
       </c>
       <c r="W16" t="n">
         <v>111.9810577647801</v>
       </c>
       <c r="X16" t="n">
-        <v>43.58980608368734</v>
+        <v>43.58980608368728</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.81162348961323</v>
+        <v>38.81162348961317</v>
       </c>
     </row>
     <row r="17">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>75.05626756757727</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.846506480668513</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>34.90100103710099</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1980,16 +1980,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
         <v>188.5623770505815</v>
       </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
     </row>
     <row r="19">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.6626485857724</v>
+        <v>76.6626485857721</v>
       </c>
       <c r="C20" t="n">
         <v>52.78090558911759</v>
@@ -2163,25 +2163,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H21" t="n">
-        <v>125.7337882414754</v>
+        <v>33.9004310042084</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,13 +2202,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.846506480668513</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>34.9010010371011</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2333,7 +2333,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H23" t="n">
-        <v>49.59336558194014</v>
+        <v>49.59336558194013</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.846506480668513</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2451,19 +2451,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>159.2392352254837</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>106.7810505784292</v>
       </c>
       <c r="W24" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="X24" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505817</v>
       </c>
     </row>
     <row r="25">
@@ -2555,7 +2555,7 @@
         <v>160.6202637098006</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7385207131461</v>
+        <v>136.738520713146</v>
       </c>
       <c r="D26" t="n">
         <v>124.3051829741945</v>
@@ -2567,13 +2567,13 @@
         <v>189.7322729719807</v>
       </c>
       <c r="G26" t="n">
-        <v>205.3708602775721</v>
+        <v>205.370860277572</v>
       </c>
       <c r="H26" t="n">
         <v>133.5509807059686</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52983825036448</v>
+        <v>27.52983825036446</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.04236090203119</v>
+        <v>14.04236090203116</v>
       </c>
       <c r="T26" t="n">
-        <v>8.997433817177534</v>
+        <v>8.997433817177495</v>
       </c>
       <c r="U26" t="n">
-        <v>36.6835379432535</v>
+        <v>36.68353794325347</v>
       </c>
       <c r="V26" t="n">
-        <v>107.4128069411193</v>
+        <v>107.4128069411192</v>
       </c>
       <c r="W26" t="n">
         <v>124.4294871577341</v>
@@ -2631,19 +2631,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>140.5942146166795</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.846506480668513</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>214.9701989459033</v>
+        <v>1.503222277870521</v>
       </c>
       <c r="U27" t="n">
-        <v>220.3981618371495</v>
+        <v>23.7610810008974</v>
       </c>
       <c r="V27" t="n">
-        <v>27.1819442473695</v>
+        <v>27.18194424736947</v>
       </c>
       <c r="W27" t="n">
-        <v>53.23760690897885</v>
+        <v>53.23760690897882</v>
       </c>
       <c r="X27" t="n">
-        <v>3.84593777143786</v>
+        <v>3.845937771437832</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>9.917309465992844</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.96844096064992</v>
+        <v>21.96844096064989</v>
       </c>
       <c r="T28" t="n">
-        <v>10.29393777257508</v>
+        <v>10.29393777257505</v>
       </c>
       <c r="U28" t="n">
-        <v>75.18957207913225</v>
+        <v>75.18957207913222</v>
       </c>
       <c r="V28" t="n">
-        <v>31.64203851641716</v>
+        <v>31.64203851641713</v>
       </c>
       <c r="W28" t="n">
-        <v>76.84373042130258</v>
+        <v>76.84373042130255</v>
       </c>
       <c r="X28" t="n">
-        <v>8.452478740209784</v>
+        <v>8.452478740209756</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.674296146135674</v>
+        <v>3.674296146135646</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>160.6202637098006</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7385207131461</v>
+        <v>136.738520713146</v>
       </c>
       <c r="D29" t="n">
-        <v>124.3051829741946</v>
+        <v>124.3051829741945</v>
       </c>
       <c r="E29" t="n">
         <v>158.0119353936034</v>
       </c>
       <c r="F29" t="n">
-        <v>189.7322729719808</v>
+        <v>189.7322729719807</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3708602775721</v>
+        <v>205.370860277572</v>
       </c>
       <c r="H29" t="n">
         <v>133.5509807059686</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52983825036452</v>
+        <v>27.52983825036446</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.04236090203122</v>
+        <v>14.04236090203116</v>
       </c>
       <c r="T29" t="n">
-        <v>8.997433817177551</v>
+        <v>8.997433817177505</v>
       </c>
       <c r="U29" t="n">
-        <v>36.68353794325353</v>
+        <v>36.68353794325347</v>
       </c>
       <c r="V29" t="n">
-        <v>107.4128069411193</v>
+        <v>107.4128069411192</v>
       </c>
       <c r="W29" t="n">
-        <v>124.4294871577342</v>
+        <v>124.4294871577341</v>
       </c>
       <c r="X29" t="n">
         <v>146.3157376266734</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.8185907504172</v>
+        <v>168.8185907504171</v>
       </c>
     </row>
     <row r="30">
@@ -2871,16 +2871,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>81.28952348895643</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.846506480668513</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.503222277870577</v>
+        <v>1.503222277870521</v>
       </c>
       <c r="U30" t="n">
-        <v>23.76108100089746</v>
+        <v>23.7610810008974</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>27.18194424736947</v>
       </c>
       <c r="W30" t="n">
-        <v>249.8746877452308</v>
+        <v>53.23760690897882</v>
       </c>
       <c r="X30" t="n">
-        <v>3.845937771437889</v>
+        <v>3.845937771437832</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>9.917309465992844</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.96844096064995</v>
+        <v>21.96844096064989</v>
       </c>
       <c r="T31" t="n">
-        <v>10.29393777257511</v>
+        <v>10.29393777257505</v>
       </c>
       <c r="U31" t="n">
-        <v>75.18957207913228</v>
+        <v>75.18957207913222</v>
       </c>
       <c r="V31" t="n">
-        <v>31.64203851641719</v>
+        <v>31.64203851641713</v>
       </c>
       <c r="W31" t="n">
-        <v>76.84373042130261</v>
+        <v>76.84373042130255</v>
       </c>
       <c r="X31" t="n">
-        <v>8.452478740209813</v>
+        <v>8.452478740209756</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.674296146135703</v>
+        <v>3.674296146135646</v>
       </c>
     </row>
     <row r="32">
@@ -3032,22 +3032,22 @@
         <v>136.7385207131461</v>
       </c>
       <c r="D32" t="n">
-        <v>124.3051829741945</v>
+        <v>124.3051829741946</v>
       </c>
       <c r="E32" t="n">
-        <v>158.0119353936034</v>
+        <v>158.0119353936035</v>
       </c>
       <c r="F32" t="n">
-        <v>189.7322729719807</v>
+        <v>189.7322729719808</v>
       </c>
       <c r="G32" t="n">
         <v>205.3708602775721</v>
       </c>
       <c r="H32" t="n">
-        <v>133.5509807059686</v>
+        <v>133.5509807059687</v>
       </c>
       <c r="I32" t="n">
-        <v>27.52983825036449</v>
+        <v>27.52983825036455</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.04236090203119</v>
+        <v>14.04236090203125</v>
       </c>
       <c r="T32" t="n">
-        <v>8.997433817177523</v>
+        <v>8.99743381717758</v>
       </c>
       <c r="U32" t="n">
-        <v>36.6835379432535</v>
+        <v>36.68353794325355</v>
       </c>
       <c r="V32" t="n">
         <v>107.4128069411193</v>
       </c>
       <c r="W32" t="n">
-        <v>124.4294871577341</v>
+        <v>124.4294871577342</v>
       </c>
       <c r="X32" t="n">
         <v>146.3157376266734</v>
       </c>
       <c r="Y32" t="n">
-        <v>168.8185907504171</v>
+        <v>168.8185907504172</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>105.0529957315731</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.846506480668513</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.503222277870549</v>
+        <v>1.503222277870606</v>
       </c>
       <c r="U33" t="n">
-        <v>23.76108100089743</v>
+        <v>23.76108100089748</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>27.18194424736956</v>
       </c>
       <c r="W33" t="n">
-        <v>132.3417774968854</v>
+        <v>53.2376069089789</v>
       </c>
       <c r="X33" t="n">
-        <v>3.84593777143786</v>
+        <v>3.845937771437917</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.917309465992872</v>
+        <v>9.917309465992929</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.96844096064992</v>
+        <v>21.96844096064998</v>
       </c>
       <c r="T34" t="n">
-        <v>10.29393777257508</v>
+        <v>10.29393777257514</v>
       </c>
       <c r="U34" t="n">
-        <v>75.18957207913225</v>
+        <v>75.1895720791323</v>
       </c>
       <c r="V34" t="n">
-        <v>31.64203851641716</v>
+        <v>31.64203851641722</v>
       </c>
       <c r="W34" t="n">
-        <v>76.84373042130258</v>
+        <v>76.84373042130264</v>
       </c>
       <c r="X34" t="n">
-        <v>8.452478740209784</v>
+        <v>8.452478740209841</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.674296146135674</v>
+        <v>3.674296146135731</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.027563532976</v>
+        <v>102.0275635329761</v>
       </c>
       <c r="C35" t="n">
-        <v>78.14582053632148</v>
+        <v>78.14582053632159</v>
       </c>
       <c r="D35" t="n">
-        <v>65.71248279736994</v>
+        <v>65.71248279737006</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41923521677882</v>
+        <v>99.41923521677893</v>
       </c>
       <c r="F35" t="n">
-        <v>131.1395727951561</v>
+        <v>131.1395727951563</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7781601007475</v>
+        <v>146.7781601007476</v>
       </c>
       <c r="H35" t="n">
-        <v>74.95828052914402</v>
+        <v>74.95828052914413</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82010676429468</v>
+        <v>48.82010676429479</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83678698090955</v>
+        <v>65.83678698090966</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72303744984879</v>
+        <v>87.7230374498489</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.2258905735926</v>
+        <v>110.2258905735927</v>
       </c>
     </row>
     <row r="36">
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.846506480668513</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>231.6954798414391</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>125.5704408737026</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.59687190230765</v>
+        <v>16.59687190230776</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.25103024447799</v>
+        <v>18.2510302444781</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.027563532976</v>
+        <v>102.0275635329761</v>
       </c>
       <c r="C38" t="n">
-        <v>78.14582053632148</v>
+        <v>78.14582053632159</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71248279736994</v>
+        <v>65.71248279737006</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41923521677882</v>
+        <v>99.41923521677893</v>
       </c>
       <c r="F38" t="n">
-        <v>131.1395727951561</v>
+        <v>131.1395727951563</v>
       </c>
       <c r="G38" t="n">
-        <v>146.7781601007475</v>
+        <v>146.7781601007476</v>
       </c>
       <c r="H38" t="n">
-        <v>74.95828052914402</v>
+        <v>74.95828052914413</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82010676429468</v>
+        <v>48.82010676429479</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83678698090955</v>
+        <v>65.83678698090966</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72303744984879</v>
+        <v>87.7230374498489</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.2258905735926</v>
+        <v>110.2258905735927</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,22 +3624,22 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.846506480668513</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R39" t="n">
-        <v>79.53825546304813</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.2280576689302</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>170.2161446583403</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.59687190230765</v>
+        <v>16.59687190230776</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.25103024447799</v>
+        <v>18.2510302444781</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3822,16 +3822,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>50.0479040558475</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.846506480668513</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>62.34459909994774</v>
+        <v>25.70776865861436</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.153699692889013</v>
+        <v>9.153699692889006</v>
       </c>
       <c r="V44" t="n">
         <v>79.88296869075478</v>
@@ -4056,13 +4056,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>76.4923162758722</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.846506480668513</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4107,13 +4107,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>129.6230856669086</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>248.7773877835295</v>
+        <v>557.0721259406477</v>
       </c>
       <c r="C11" t="n">
-        <v>248.7773877835295</v>
+        <v>557.0721259406477</v>
       </c>
       <c r="D11" t="n">
-        <v>248.7773877835295</v>
+        <v>396.0190852157264</v>
       </c>
       <c r="E11" t="n">
-        <v>248.7773877835295</v>
+        <v>205.5520376898864</v>
       </c>
       <c r="F11" t="n">
-        <v>248.7773877835295</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="G11" t="n">
-        <v>248.7773877835295</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="H11" t="n">
-        <v>78.38515743055362</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="I11" t="n">
         <v>15.08499016404652</v>
@@ -5042,22 +5042,22 @@
         <v>115.6457740567086</v>
       </c>
       <c r="K11" t="n">
-        <v>267.4711326400899</v>
+        <v>285.5745218649279</v>
       </c>
       <c r="L11" t="n">
-        <v>314.2444708703839</v>
+        <v>332.3478600952218</v>
       </c>
       <c r="M11" t="n">
-        <v>395.1647815935356</v>
+        <v>519.0246133752975</v>
       </c>
       <c r="N11" t="n">
-        <v>470.5520315267738</v>
+        <v>594.4118633085355</v>
       </c>
       <c r="O11" t="n">
-        <v>504.8287151602033</v>
+        <v>628.6885469419651</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4818518381372</v>
+        <v>666.4818518381371</v>
       </c>
       <c r="Q11" t="n">
         <v>754.2495082023261</v>
@@ -5066,25 +5066,25 @@
         <v>754.2495082023261</v>
       </c>
       <c r="S11" t="n">
-        <v>704.5730554290849</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="T11" t="n">
-        <v>659.9924886001404</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="U11" t="n">
-        <v>622.5303595216435</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="V11" t="n">
-        <v>622.5303595216435</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="W11" t="n">
-        <v>622.5303595216435</v>
+        <v>593.0709076960517</v>
       </c>
       <c r="X11" t="n">
-        <v>439.2444353093695</v>
+        <v>593.0709076960517</v>
       </c>
       <c r="Y11" t="n">
-        <v>439.2444353093695</v>
+        <v>593.0709076960517</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.3543708174459</v>
+        <v>264.2656565527993</v>
       </c>
       <c r="C12" t="n">
-        <v>68.07305546410173</v>
+        <v>195.0768819706425</v>
       </c>
       <c r="D12" t="n">
-        <v>68.07305546410173</v>
+        <v>195.0768819706425</v>
       </c>
       <c r="E12" t="n">
-        <v>68.07305546410173</v>
+        <v>195.0768819706425</v>
       </c>
       <c r="F12" t="n">
-        <v>68.07305546410173</v>
+        <v>195.0768819706425</v>
       </c>
       <c r="G12" t="n">
-        <v>68.07305546410173</v>
+        <v>195.0768819706425</v>
       </c>
       <c r="H12" t="n">
         <v>68.07305546410173</v>
@@ -5121,7 +5121,7 @@
         <v>15.08499016404652</v>
       </c>
       <c r="K12" t="n">
-        <v>53.07705719635109</v>
+        <v>53.07705719635116</v>
       </c>
       <c r="L12" t="n">
         <v>170.4486221681694</v>
@@ -5142,28 +5142,28 @@
         <v>747.3338450905397</v>
       </c>
       <c r="R12" t="n">
-        <v>747.3338450905397</v>
+        <v>611.2645134234344</v>
       </c>
       <c r="S12" t="n">
-        <v>733.9421253243612</v>
+        <v>597.872793657256</v>
       </c>
       <c r="T12" t="n">
-        <v>543.4750777985213</v>
+        <v>560.8621374740761</v>
       </c>
       <c r="U12" t="n">
-        <v>459.4148233515878</v>
+        <v>501.3687957120812</v>
       </c>
       <c r="V12" t="n">
-        <v>396.4660641689139</v>
+        <v>438.4200365294075</v>
       </c>
       <c r="W12" t="n">
-        <v>307.1984538128974</v>
+        <v>349.152426173391</v>
       </c>
       <c r="X12" t="n">
-        <v>267.8214183432858</v>
+        <v>309.7753907037795</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.3543708174459</v>
+        <v>264.2656565527993</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.08499016404652</v>
+        <v>15.79059153703781</v>
       </c>
       <c r="C13" t="n">
-        <v>15.08499016404652</v>
+        <v>27.54433520609488</v>
       </c>
       <c r="D13" t="n">
-        <v>47.90051924715256</v>
+        <v>60.35986428920097</v>
       </c>
       <c r="E13" t="n">
-        <v>84.18749227835946</v>
+        <v>96.64683732040793</v>
       </c>
       <c r="F13" t="n">
-        <v>84.18749227835946</v>
+        <v>135.6555767554554</v>
       </c>
       <c r="G13" t="n">
-        <v>84.18749227835946</v>
+        <v>135.6555767554554</v>
       </c>
       <c r="H13" t="n">
-        <v>84.18749227835946</v>
+        <v>148.0371025960632</v>
       </c>
       <c r="I13" t="n">
-        <v>84.18749227835946</v>
+        <v>148.0371025960632</v>
       </c>
       <c r="J13" t="n">
-        <v>141.707183344971</v>
+        <v>148.0371025960632</v>
       </c>
       <c r="K13" t="n">
-        <v>251.9111923059687</v>
+        <v>258.2411115570609</v>
       </c>
       <c r="L13" t="n">
-        <v>251.9111923059687</v>
+        <v>258.2411115570609</v>
       </c>
       <c r="M13" t="n">
-        <v>251.9111923059687</v>
+        <v>258.2411115570609</v>
       </c>
       <c r="N13" t="n">
-        <v>412.1254238297332</v>
+        <v>261.1119839323508</v>
       </c>
       <c r="O13" t="n">
-        <v>412.1254238297332</v>
+        <v>400.5753329514384</v>
       </c>
       <c r="P13" t="n">
-        <v>468.6318884260462</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="Q13" t="n">
-        <v>519.2459201612859</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="R13" t="n">
-        <v>493.8989154577488</v>
+        <v>493.8989154577484</v>
       </c>
       <c r="S13" t="n">
-        <v>436.2163212111554</v>
+        <v>436.2163212111551</v>
       </c>
       <c r="T13" t="n">
-        <v>390.3261544272639</v>
+        <v>390.3261544272636</v>
       </c>
       <c r="U13" t="n">
-        <v>278.8848418791732</v>
+        <v>278.884841879173</v>
       </c>
       <c r="V13" t="n">
-        <v>211.4309369701887</v>
+        <v>211.4309369701885</v>
       </c>
       <c r="W13" t="n">
-        <v>98.31875740980468</v>
+        <v>98.31875740980456</v>
       </c>
       <c r="X13" t="n">
-        <v>54.28865025456493</v>
+        <v>54.28865025456488</v>
       </c>
       <c r="Y13" t="n">
         <v>15.08499016404652</v>
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>570.7483936365857</v>
+        <v>612.8564030433326</v>
       </c>
       <c r="C14" t="n">
-        <v>570.7483936365857</v>
+        <v>439.2444353093694</v>
       </c>
       <c r="D14" t="n">
-        <v>439.2444353093695</v>
+        <v>439.2444353093694</v>
       </c>
       <c r="E14" t="n">
-        <v>439.2444353093695</v>
+        <v>439.2444353093694</v>
       </c>
       <c r="F14" t="n">
-        <v>439.2444353093695</v>
+        <v>439.2444353093694</v>
       </c>
       <c r="G14" t="n">
         <v>248.7773877835295</v>
       </c>
       <c r="H14" t="n">
-        <v>78.38515743055363</v>
+        <v>78.38515743055358</v>
       </c>
       <c r="I14" t="n">
         <v>15.08499016404652</v>
       </c>
       <c r="J14" t="n">
-        <v>115.6457740567086</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="K14" t="n">
-        <v>115.6457740567086</v>
+        <v>185.0137379722657</v>
       </c>
       <c r="L14" t="n">
-        <v>162.4191122870025</v>
+        <v>371.6904912523414</v>
       </c>
       <c r="M14" t="n">
-        <v>243.3394230101543</v>
+        <v>452.6108019754931</v>
       </c>
       <c r="N14" t="n">
-        <v>318.7266729433924</v>
+        <v>527.9980519087312</v>
       </c>
       <c r="O14" t="n">
-        <v>504.8287151602033</v>
+        <v>562.2747355421608</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4818518381372</v>
+        <v>723.9278722200947</v>
       </c>
       <c r="Q14" t="n">
         <v>754.2495082023261</v>
@@ -5303,25 +5303,25 @@
         <v>737.5517418112274</v>
       </c>
       <c r="S14" t="n">
-        <v>687.8752890379862</v>
+        <v>687.8752890379864</v>
       </c>
       <c r="T14" t="n">
-        <v>643.2947222090418</v>
+        <v>643.2947222090419</v>
       </c>
       <c r="U14" t="n">
-        <v>570.7483936365857</v>
+        <v>612.8564030433326</v>
       </c>
       <c r="V14" t="n">
-        <v>570.7483936365857</v>
+        <v>612.8564030433326</v>
       </c>
       <c r="W14" t="n">
-        <v>570.7483936365857</v>
+        <v>612.8564030433326</v>
       </c>
       <c r="X14" t="n">
-        <v>570.7483936365857</v>
+        <v>612.8564030433326</v>
       </c>
       <c r="Y14" t="n">
-        <v>570.7483936365857</v>
+        <v>612.8564030433326</v>
       </c>
     </row>
     <row r="15">
@@ -5331,40 +5331,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.3543708174459</v>
+        <v>264.2656565527993</v>
       </c>
       <c r="C15" t="n">
-        <v>68.07305546410173</v>
+        <v>254.9843411994552</v>
       </c>
       <c r="D15" t="n">
-        <v>68.07305546410173</v>
+        <v>254.9843411994552</v>
       </c>
       <c r="E15" t="n">
-        <v>68.07305546410173</v>
+        <v>81.42113732086969</v>
       </c>
       <c r="F15" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="G15" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="H15" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="I15" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="J15" t="n">
         <v>15.08499016404652</v>
       </c>
       <c r="K15" t="n">
-        <v>53.07705719635118</v>
+        <v>53.07705719635115</v>
       </c>
       <c r="L15" t="n">
-        <v>170.4486221681695</v>
+        <v>170.4486221681694</v>
       </c>
       <c r="M15" t="n">
-        <v>352.1703666486676</v>
+        <v>352.1703666486675</v>
       </c>
       <c r="N15" t="n">
         <v>538.8471199287432</v>
@@ -5379,28 +5379,28 @@
         <v>747.3338450905397</v>
       </c>
       <c r="R15" t="n">
-        <v>611.2645134234346</v>
+        <v>611.2645134234344</v>
       </c>
       <c r="S15" t="n">
-        <v>564.4178992645629</v>
+        <v>597.872793657256</v>
       </c>
       <c r="T15" t="n">
-        <v>373.950851738723</v>
+        <v>560.8621374740761</v>
       </c>
       <c r="U15" t="n">
-        <v>314.457509976728</v>
+        <v>501.3687957120812</v>
       </c>
       <c r="V15" t="n">
-        <v>251.5087507940542</v>
+        <v>438.4200365294075</v>
       </c>
       <c r="W15" t="n">
-        <v>162.2411404380376</v>
+        <v>349.152426173391</v>
       </c>
       <c r="X15" t="n">
-        <v>122.8641049684261</v>
+        <v>309.7753907037795</v>
       </c>
       <c r="Y15" t="n">
-        <v>77.3543708174459</v>
+        <v>264.2656565527993</v>
       </c>
     </row>
     <row r="16">
@@ -5416,67 +5416,67 @@
         <v>15.08499016404652</v>
       </c>
       <c r="D16" t="n">
-        <v>47.90051924715256</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="E16" t="n">
-        <v>47.90051924715256</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="F16" t="n">
-        <v>47.90051924715256</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="G16" t="n">
-        <v>47.90051924715256</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="H16" t="n">
-        <v>47.90051924715256</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="I16" t="n">
-        <v>47.90051924715256</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="J16" t="n">
-        <v>47.90051924715256</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="K16" t="n">
-        <v>47.90051924715256</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="L16" t="n">
-        <v>47.90051924715256</v>
+        <v>159.8232296193045</v>
       </c>
       <c r="M16" t="n">
-        <v>168.9543078831941</v>
+        <v>311.4282763715049</v>
       </c>
       <c r="N16" t="n">
-        <v>329.1685394069585</v>
+        <v>311.4282763715049</v>
       </c>
       <c r="O16" t="n">
-        <v>468.6318884260462</v>
+        <v>450.8916253905926</v>
       </c>
       <c r="P16" t="n">
-        <v>468.6318884260462</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="Q16" t="n">
-        <v>519.2459201612859</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="R16" t="n">
-        <v>493.8989154577488</v>
+        <v>493.8989154577484</v>
       </c>
       <c r="S16" t="n">
-        <v>436.2163212111554</v>
+        <v>436.2163212111551</v>
       </c>
       <c r="T16" t="n">
-        <v>390.3261544272639</v>
+        <v>390.3261544272636</v>
       </c>
       <c r="U16" t="n">
-        <v>278.8848418791732</v>
+        <v>278.884841879173</v>
       </c>
       <c r="V16" t="n">
-        <v>211.4309369701887</v>
+        <v>211.4309369701885</v>
       </c>
       <c r="W16" t="n">
-        <v>98.31875740980468</v>
+        <v>98.31875740980456</v>
       </c>
       <c r="X16" t="n">
-        <v>54.28865025456493</v>
+        <v>54.28865025456488</v>
       </c>
       <c r="Y16" t="n">
         <v>15.08499016404652</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.5335379340409</v>
+        <v>463.5335379340404</v>
       </c>
       <c r="C17" t="n">
-        <v>410.2194918844272</v>
+        <v>410.2194918844266</v>
       </c>
       <c r="D17" t="n">
-        <v>369.4643728438554</v>
+        <v>369.464372843855</v>
       </c>
       <c r="E17" t="n">
-        <v>294.662029137214</v>
+        <v>294.6620291372137</v>
       </c>
       <c r="F17" t="n">
-        <v>187.8189404019087</v>
+        <v>187.8189404019085</v>
       </c>
       <c r="G17" t="n">
         <v>65.17929883267293</v>
@@ -5510,37 +5510,37 @@
         <v>15.08499016404652</v>
       </c>
       <c r="I17" t="n">
-        <v>70.94848926897389</v>
+        <v>70.94848926897387</v>
       </c>
       <c r="J17" t="n">
-        <v>70.94848926897389</v>
+        <v>70.94848926897387</v>
       </c>
       <c r="K17" t="n">
-        <v>70.94848926897389</v>
+        <v>70.94848926897387</v>
       </c>
       <c r="L17" t="n">
         <v>117.7218274992678</v>
       </c>
       <c r="M17" t="n">
-        <v>198.6421382224196</v>
+        <v>198.6421382224195</v>
       </c>
       <c r="N17" t="n">
-        <v>274.0293881556577</v>
+        <v>274.0293881556576</v>
       </c>
       <c r="O17" t="n">
-        <v>308.3060717890872</v>
+        <v>308.3060717890871</v>
       </c>
       <c r="P17" t="n">
-        <v>308.3060717890872</v>
+        <v>308.3060717890871</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.482978416884</v>
+        <v>494.9828250691628</v>
       </c>
       <c r="R17" t="n">
-        <v>564.021490619799</v>
+        <v>596.5213372720779</v>
       </c>
       <c r="S17" t="n">
-        <v>633.2375922995764</v>
+        <v>665.7374389518552</v>
       </c>
       <c r="T17" t="n">
         <v>707.4481717933588</v>
@@ -5549,16 +5549,16 @@
         <v>754.2495082023261</v>
       </c>
       <c r="V17" t="n">
-        <v>730.5573952557696</v>
+        <v>730.5573952557693</v>
       </c>
       <c r="W17" t="n">
-        <v>689.6767164338447</v>
+        <v>689.6767164338441</v>
       </c>
       <c r="X17" t="n">
-        <v>626.6887139059205</v>
+        <v>626.6887139059201</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.9705567075481</v>
+        <v>540.9705567075475</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>378.3309446377647</v>
+        <v>195.0768819706425</v>
       </c>
       <c r="C18" t="n">
-        <v>302.5165329533432</v>
+        <v>195.0768819706425</v>
       </c>
       <c r="D18" t="n">
-        <v>302.5165329533432</v>
+        <v>195.0768819706425</v>
       </c>
       <c r="E18" t="n">
-        <v>302.5165329533432</v>
+        <v>195.0768819706425</v>
       </c>
       <c r="F18" t="n">
-        <v>142.0888166705873</v>
+        <v>195.0768819706425</v>
       </c>
       <c r="G18" t="n">
-        <v>142.0888166705873</v>
+        <v>195.0768819706425</v>
       </c>
       <c r="H18" t="n">
-        <v>15.08499016404652</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="I18" t="n">
-        <v>15.08499016404652</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="J18" t="n">
         <v>15.08499016404652</v>
       </c>
       <c r="K18" t="n">
-        <v>53.07705719635109</v>
+        <v>53.07705719635115</v>
       </c>
       <c r="L18" t="n">
         <v>170.4486221681694</v>
@@ -5616,28 +5616,28 @@
         <v>747.3338450905397</v>
       </c>
       <c r="R18" t="n">
-        <v>747.3338450905397</v>
+        <v>611.2645134234344</v>
       </c>
       <c r="S18" t="n">
-        <v>747.3338450905397</v>
+        <v>576.0109770223223</v>
       </c>
       <c r="T18" t="n">
-        <v>747.3338450905397</v>
+        <v>576.0109770223223</v>
       </c>
       <c r="U18" t="n">
-        <v>747.3338450905397</v>
+        <v>576.0109770223223</v>
       </c>
       <c r="V18" t="n">
-        <v>556.8667975646998</v>
+        <v>576.0109770223223</v>
       </c>
       <c r="W18" t="n">
-        <v>556.8667975646998</v>
+        <v>385.5439294964825</v>
       </c>
       <c r="X18" t="n">
-        <v>556.8667975646998</v>
+        <v>385.5439294964825</v>
       </c>
       <c r="Y18" t="n">
-        <v>556.8667975646998</v>
+        <v>195.0768819706425</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.5335379340406</v>
+        <v>463.533537934041</v>
       </c>
       <c r="C20" t="n">
-        <v>410.2194918844268</v>
+        <v>410.2194918844273</v>
       </c>
       <c r="D20" t="n">
-        <v>369.464372843855</v>
+        <v>369.4643728438554</v>
       </c>
       <c r="E20" t="n">
-        <v>294.6620291372137</v>
+        <v>294.6620291372141</v>
       </c>
       <c r="F20" t="n">
-        <v>187.8189404019083</v>
+        <v>187.8189404019087</v>
       </c>
       <c r="G20" t="n">
         <v>65.17929883267293</v>
@@ -5747,43 +5747,43 @@
         <v>15.08499016404652</v>
       </c>
       <c r="I20" t="n">
-        <v>70.94848926897389</v>
+        <v>70.94848926897387</v>
       </c>
       <c r="J20" t="n">
-        <v>257.6252425490496</v>
+        <v>70.94848926897387</v>
       </c>
       <c r="K20" t="n">
-        <v>257.6252425490496</v>
+        <v>70.94848926897387</v>
       </c>
       <c r="L20" t="n">
-        <v>304.3985807793436</v>
+        <v>117.7218274992678</v>
       </c>
       <c r="M20" t="n">
-        <v>385.3188915024953</v>
+        <v>198.6421382224195</v>
       </c>
       <c r="N20" t="n">
-        <v>460.7061414357335</v>
+        <v>274.0293881556576</v>
       </c>
       <c r="O20" t="n">
-        <v>494.982825069163</v>
+        <v>308.3060717890871</v>
       </c>
       <c r="P20" t="n">
-        <v>494.982825069163</v>
+        <v>308.3060717890871</v>
       </c>
       <c r="Q20" t="n">
-        <v>605.9096595904439</v>
+        <v>494.9828250691628</v>
       </c>
       <c r="R20" t="n">
-        <v>707.4481717933589</v>
+        <v>596.5213372720779</v>
       </c>
       <c r="S20" t="n">
-        <v>707.4481717933589</v>
+        <v>633.2375922995764</v>
       </c>
       <c r="T20" t="n">
-        <v>707.4481717933589</v>
+        <v>707.4481717933588</v>
       </c>
       <c r="U20" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="V20" t="n">
         <v>730.5573952557697</v>
@@ -5795,7 +5795,7 @@
         <v>626.6887139059206</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.970556707548</v>
+        <v>540.9705567075481</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>195.0768819706425</v>
+        <v>747.3338450905397</v>
       </c>
       <c r="C21" t="n">
-        <v>195.0768819706425</v>
+        <v>747.3338450905397</v>
       </c>
       <c r="D21" t="n">
-        <v>195.0768819706425</v>
+        <v>586.5537288515715</v>
       </c>
       <c r="E21" t="n">
-        <v>195.0768819706425</v>
+        <v>412.9905249729859</v>
       </c>
       <c r="F21" t="n">
-        <v>195.0768819706425</v>
+        <v>252.56280869023</v>
       </c>
       <c r="G21" t="n">
-        <v>195.0768819706425</v>
+        <v>102.3159150643122</v>
       </c>
       <c r="H21" t="n">
         <v>68.07305546410173</v>
@@ -5832,49 +5832,49 @@
         <v>15.08499016404652</v>
       </c>
       <c r="K21" t="n">
-        <v>53.07705719635118</v>
+        <v>53.07705719635116</v>
       </c>
       <c r="L21" t="n">
-        <v>170.4486221681695</v>
+        <v>170.4486221681694</v>
       </c>
       <c r="M21" t="n">
-        <v>352.1703666486675</v>
+        <v>352.1703666486674</v>
       </c>
       <c r="N21" t="n">
         <v>538.8471199287433</v>
       </c>
       <c r="O21" t="n">
-        <v>670.5904072110302</v>
+        <v>670.5904072110301</v>
       </c>
       <c r="P21" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.3338450905399</v>
+        <v>747.3338450905397</v>
       </c>
       <c r="R21" t="n">
-        <v>611.2645134234347</v>
+        <v>747.3338450905397</v>
       </c>
       <c r="S21" t="n">
-        <v>420.7974658975947</v>
+        <v>747.3338450905397</v>
       </c>
       <c r="T21" t="n">
-        <v>420.7974658975947</v>
+        <v>747.3338450905397</v>
       </c>
       <c r="U21" t="n">
-        <v>420.7974658975947</v>
+        <v>747.3338450905397</v>
       </c>
       <c r="V21" t="n">
-        <v>420.7974658975947</v>
+        <v>747.3338450905397</v>
       </c>
       <c r="W21" t="n">
-        <v>385.5439294964825</v>
+        <v>747.3338450905397</v>
       </c>
       <c r="X21" t="n">
-        <v>385.5439294964825</v>
+        <v>747.3338450905397</v>
       </c>
       <c r="Y21" t="n">
-        <v>195.0768819706425</v>
+        <v>747.3338450905397</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.5335379340404</v>
+        <v>463.5335379340419</v>
       </c>
       <c r="C23" t="n">
-        <v>410.2194918844266</v>
+        <v>410.2194918844282</v>
       </c>
       <c r="D23" t="n">
-        <v>369.464372843855</v>
+        <v>369.4643728438562</v>
       </c>
       <c r="E23" t="n">
-        <v>294.6620291372137</v>
+        <v>294.6620291372144</v>
       </c>
       <c r="F23" t="n">
-        <v>187.8189404019085</v>
+        <v>187.8189404019091</v>
       </c>
       <c r="G23" t="n">
-        <v>65.17929883267293</v>
+        <v>65.17929883267294</v>
       </c>
       <c r="H23" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="I23" t="n">
-        <v>15.08499016404652</v>
+        <v>70.94848926897389</v>
       </c>
       <c r="J23" t="n">
-        <v>38.44864261669491</v>
+        <v>70.94848926897389</v>
       </c>
       <c r="K23" t="n">
-        <v>38.44864261669491</v>
+        <v>139.9871548196105</v>
       </c>
       <c r="L23" t="n">
-        <v>85.22198084698887</v>
+        <v>186.7604930499044</v>
       </c>
       <c r="M23" t="n">
-        <v>166.1422915701406</v>
+        <v>267.6808037730561</v>
       </c>
       <c r="N23" t="n">
-        <v>241.5295415033787</v>
+        <v>343.0680537062942</v>
       </c>
       <c r="O23" t="n">
-        <v>275.8062251368083</v>
+        <v>377.3447373397238</v>
       </c>
       <c r="P23" t="n">
-        <v>275.8062251368083</v>
+        <v>377.3447373397238</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.482978416884</v>
+        <v>564.0214906197997</v>
       </c>
       <c r="R23" t="n">
-        <v>564.021490619799</v>
+        <v>564.0214906197997</v>
       </c>
       <c r="S23" t="n">
-        <v>633.2375922995764</v>
+        <v>633.237592299577</v>
       </c>
       <c r="T23" t="n">
-        <v>707.4481717933588</v>
+        <v>707.4481717933595</v>
       </c>
       <c r="U23" t="n">
-        <v>754.2495082023261</v>
+        <v>754.2495082023268</v>
       </c>
       <c r="V23" t="n">
-        <v>730.5573952557693</v>
+        <v>730.5573952557704</v>
       </c>
       <c r="W23" t="n">
-        <v>689.6767164338441</v>
+        <v>689.6767164338457</v>
       </c>
       <c r="X23" t="n">
-        <v>626.6887139059201</v>
+        <v>626.6887139059215</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.9705567075475</v>
+        <v>540.970556707549</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15.08499016404652</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="C24" t="n">
-        <v>15.08499016404652</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="D24" t="n">
-        <v>15.08499016404652</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="E24" t="n">
-        <v>15.08499016404652</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="F24" t="n">
-        <v>15.08499016404652</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="G24" t="n">
-        <v>15.08499016404652</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="H24" t="n">
-        <v>15.08499016404652</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="I24" t="n">
-        <v>15.08499016404652</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="J24" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="K24" t="n">
-        <v>53.07705719635118</v>
+        <v>53.0770571963516</v>
       </c>
       <c r="L24" t="n">
-        <v>170.4486221681695</v>
+        <v>170.4486221681699</v>
       </c>
       <c r="M24" t="n">
-        <v>352.1703666486676</v>
+        <v>352.1703666486679</v>
       </c>
       <c r="N24" t="n">
-        <v>538.8471199287432</v>
+        <v>538.8471199287438</v>
       </c>
       <c r="O24" t="n">
-        <v>670.5904072110301</v>
+        <v>670.5904072110308</v>
       </c>
       <c r="P24" t="n">
-        <v>754.2495082023261</v>
+        <v>754.2495082023268</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.3338450905397</v>
+        <v>747.3338450905404</v>
       </c>
       <c r="R24" t="n">
-        <v>747.3338450905397</v>
+        <v>747.3338450905404</v>
       </c>
       <c r="S24" t="n">
-        <v>747.3338450905397</v>
+        <v>747.3338450905404</v>
       </c>
       <c r="T24" t="n">
-        <v>747.3338450905397</v>
+        <v>747.3338450905404</v>
       </c>
       <c r="U24" t="n">
-        <v>586.4861327415663</v>
+        <v>747.3338450905404</v>
       </c>
       <c r="V24" t="n">
-        <v>586.4861327415663</v>
+        <v>639.474198041622</v>
       </c>
       <c r="W24" t="n">
-        <v>396.0190852157264</v>
+        <v>449.0071505157819</v>
       </c>
       <c r="X24" t="n">
-        <v>205.5520376898864</v>
+        <v>258.5401029899418</v>
       </c>
       <c r="Y24" t="n">
-        <v>15.08499016404652</v>
+        <v>68.07305546410174</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="C25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="D25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="E25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="F25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="G25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="H25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="I25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="J25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="K25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="L25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="M25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="N25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="O25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="P25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="R25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="S25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="T25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="U25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="V25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="W25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="X25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8924400792736</v>
+        <v>882.8924400792732</v>
       </c>
       <c r="D26" t="n">
-        <v>757.3316491962488</v>
+        <v>757.3316491962485</v>
       </c>
       <c r="E26" t="n">
-        <v>597.7236336471544</v>
+        <v>597.7236336471542</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0748730693961</v>
+        <v>406.0748730693959</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6295596577064</v>
+        <v>198.6295596577069</v>
       </c>
       <c r="H26" t="n">
-        <v>63.72957914662693</v>
+        <v>63.72957914662741</v>
       </c>
       <c r="I26" t="n">
         <v>35.92166172201684</v>
@@ -6266,10 +6266,10 @@
         <v>1501.572351998503</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.778677628126</v>
+        <v>1353.778677628125</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.254848587301</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>35.92166172201684</v>
+        <v>530.6926981223265</v>
       </c>
       <c r="C27" t="n">
-        <v>35.92166172201684</v>
+        <v>530.6926981223265</v>
       </c>
       <c r="D27" t="n">
-        <v>35.92166172201684</v>
+        <v>369.9125818833583</v>
       </c>
       <c r="E27" t="n">
-        <v>35.92166172201684</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="F27" t="n">
         <v>35.92166172201684</v>
@@ -6309,7 +6309,7 @@
         <v>73.91372875432148</v>
       </c>
       <c r="L27" t="n">
-        <v>191.2852937261398</v>
+        <v>191.2852937261397</v>
       </c>
       <c r="M27" t="n">
         <v>373.0070382066378</v>
@@ -6324,31 +6324,31 @@
         <v>793.3606943740705</v>
       </c>
       <c r="Q27" t="n">
-        <v>786.4450312622841</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="R27" t="n">
-        <v>786.4450312622841</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="S27" t="n">
-        <v>786.4450312622841</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="T27" t="n">
-        <v>569.3034161654122</v>
+        <v>791.8422880327871</v>
       </c>
       <c r="U27" t="n">
-        <v>346.6790102693016</v>
+        <v>767.8411961126887</v>
       </c>
       <c r="V27" t="n">
-        <v>319.2225009285243</v>
+        <v>740.3846867719114</v>
       </c>
       <c r="W27" t="n">
-        <v>265.4471404144042</v>
+        <v>686.6093262577914</v>
       </c>
       <c r="X27" t="n">
-        <v>261.5623547866892</v>
+        <v>682.7245406300764</v>
       </c>
       <c r="Y27" t="n">
-        <v>35.92166172201684</v>
+        <v>672.7070563209927</v>
       </c>
     </row>
     <row r="28">
@@ -6361,70 +6361,70 @@
         <v>35.92166172201684</v>
       </c>
       <c r="C28" t="n">
-        <v>82.46135946111661</v>
+        <v>82.46135946111664</v>
       </c>
       <c r="D28" t="n">
-        <v>82.46135946111661</v>
+        <v>150.0628426142655</v>
       </c>
       <c r="E28" t="n">
-        <v>82.46135946111661</v>
+        <v>150.0628426142655</v>
       </c>
       <c r="F28" t="n">
-        <v>82.46135946111661</v>
+        <v>150.0628426142655</v>
       </c>
       <c r="G28" t="n">
-        <v>82.46135946111661</v>
+        <v>150.0628426142655</v>
       </c>
       <c r="H28" t="n">
-        <v>82.46135946111661</v>
+        <v>150.0628426142655</v>
       </c>
       <c r="I28" t="n">
-        <v>111.356520331297</v>
+        <v>150.0628426142655</v>
       </c>
       <c r="J28" t="n">
-        <v>111.356520331297</v>
+        <v>150.0628426142655</v>
       </c>
       <c r="K28" t="n">
-        <v>256.3464833623374</v>
+        <v>150.0628426142655</v>
       </c>
       <c r="L28" t="n">
-        <v>256.3464833623374</v>
+        <v>150.0628426142655</v>
       </c>
       <c r="M28" t="n">
-        <v>256.3464833623374</v>
+        <v>150.0628426142655</v>
       </c>
       <c r="N28" t="n">
-        <v>256.3464833623374</v>
+        <v>150.0628426142655</v>
       </c>
       <c r="O28" t="n">
-        <v>256.3464833623374</v>
+        <v>150.0628426142655</v>
       </c>
       <c r="P28" t="n">
-        <v>256.3464833623374</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="Q28" t="n">
-        <v>256.3464833623374</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="R28" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="S28" t="n">
-        <v>244.0994937177466</v>
+        <v>244.0994937177465</v>
       </c>
       <c r="T28" t="n">
-        <v>233.7015767757516</v>
+        <v>233.7015767757515</v>
       </c>
       <c r="U28" t="n">
-        <v>157.7525140695574</v>
+        <v>157.7525140695573</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7908590024694</v>
+        <v>125.7908590024693</v>
       </c>
       <c r="W28" t="n">
-        <v>48.17092928398195</v>
+        <v>48.17092928398189</v>
       </c>
       <c r="X28" t="n">
-        <v>39.63307197063873</v>
+        <v>39.6330719706387</v>
       </c>
       <c r="Y28" t="n">
         <v>35.92166172201684</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1021.012157971339</v>
+        <v>1021.01215797134</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8924400792725</v>
+        <v>882.8924400792733</v>
       </c>
       <c r="D29" t="n">
-        <v>757.3316491962478</v>
+        <v>757.3316491962486</v>
       </c>
       <c r="E29" t="n">
-        <v>597.7236336471534</v>
+        <v>597.7236336471542</v>
       </c>
       <c r="F29" t="n">
-        <v>406.074873069395</v>
+        <v>406.0748730693959</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6295596577061</v>
+        <v>198.629559657707</v>
       </c>
       <c r="H29" t="n">
-        <v>63.72957914662745</v>
+        <v>63.72957914662766</v>
       </c>
       <c r="I29" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J29" t="n">
         <v>171.2683996847217</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9831015629834</v>
+        <v>375.9831015629836</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0887466946298</v>
+        <v>634.08874669463</v>
       </c>
       <c r="M29" t="n">
-        <v>926.3413643191337</v>
+        <v>926.3413643191342</v>
       </c>
       <c r="N29" t="n">
-        <v>1213.060921153724</v>
+        <v>1213.060921153725</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.669911688506</v>
+        <v>1458.669911688507</v>
       </c>
       <c r="P29" t="n">
         <v>1655.109002436483</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.662612870714</v>
+        <v>1777.662612870715</v>
       </c>
       <c r="R29" t="n">
-        <v>1796.083086100841</v>
+        <v>1796.083086100842</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.898883169496</v>
+        <v>1781.898883169497</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.810566182448</v>
+        <v>1772.810566182449</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.756487451889</v>
+        <v>1735.75648745189</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.25870266288</v>
+        <v>1627.258702662881</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.572351998502</v>
+        <v>1501.572351998503</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.778677628125</v>
+        <v>1353.778677628126</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.254848587299</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>35.92166172201683</v>
+        <v>665.7913932092065</v>
       </c>
       <c r="C30" t="n">
-        <v>35.92166172201683</v>
+        <v>583.6807634223818</v>
       </c>
       <c r="D30" t="n">
-        <v>35.92166172201683</v>
+        <v>422.9006471834135</v>
       </c>
       <c r="E30" t="n">
-        <v>35.92166172201683</v>
+        <v>249.337443304828</v>
       </c>
       <c r="F30" t="n">
-        <v>35.92166172201683</v>
+        <v>88.90972702207206</v>
       </c>
       <c r="G30" t="n">
-        <v>35.92166172201683</v>
+        <v>88.90972702207206</v>
       </c>
       <c r="H30" t="n">
-        <v>35.92166172201683</v>
+        <v>88.90972702207206</v>
       </c>
       <c r="I30" t="n">
-        <v>35.92166172201683</v>
+        <v>88.90972702207206</v>
       </c>
       <c r="J30" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K30" t="n">
         <v>73.91372875432148</v>
       </c>
       <c r="L30" t="n">
-        <v>191.2852937261398</v>
+        <v>191.2852937261397</v>
       </c>
       <c r="M30" t="n">
         <v>373.0070382066378</v>
@@ -6573,19 +6573,19 @@
         <v>784.9266249210008</v>
       </c>
       <c r="U30" t="n">
-        <v>760.9255330009023</v>
+        <v>760.9255330009024</v>
       </c>
       <c r="V30" t="n">
-        <v>517.8458149045364</v>
+        <v>733.4690236601252</v>
       </c>
       <c r="W30" t="n">
-        <v>265.4471404144042</v>
+        <v>679.6936631460052</v>
       </c>
       <c r="X30" t="n">
-        <v>261.5623547866892</v>
+        <v>675.8088775182902</v>
       </c>
       <c r="Y30" t="n">
-        <v>35.92166172201683</v>
+        <v>665.7913932092065</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="C31" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D31" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E31" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F31" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G31" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H31" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I31" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J31" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K31" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="L31" t="n">
-        <v>92.0405350333134</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="M31" t="n">
-        <v>92.0405350333134</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="N31" t="n">
-        <v>92.0405350333134</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="O31" t="n">
-        <v>266.2898381224438</v>
+        <v>210.1709648111473</v>
       </c>
       <c r="P31" t="n">
-        <v>266.2898381224438</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.2898381224438</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="R31" t="n">
-        <v>266.2898381224438</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="S31" t="n">
-        <v>244.0994937177468</v>
+        <v>244.0994937177465</v>
       </c>
       <c r="T31" t="n">
-        <v>233.7015767757518</v>
+        <v>233.7015767757515</v>
       </c>
       <c r="U31" t="n">
-        <v>157.7525140695575</v>
+        <v>157.7525140695573</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7908590024695</v>
+        <v>125.7908590024693</v>
       </c>
       <c r="W31" t="n">
-        <v>48.170929283982</v>
+        <v>48.17092928398191</v>
       </c>
       <c r="X31" t="n">
-        <v>39.63307197063875</v>
+        <v>39.63307197063872</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8924400792731</v>
+        <v>882.8924400792733</v>
       </c>
       <c r="D32" t="n">
-        <v>757.3316491962483</v>
+        <v>757.3316491962485</v>
       </c>
       <c r="E32" t="n">
-        <v>597.723633647154</v>
+        <v>597.7236336471541</v>
       </c>
       <c r="F32" t="n">
         <v>406.0748730693957</v>
       </c>
       <c r="G32" t="n">
-        <v>198.6295596577067</v>
+        <v>198.629559657707</v>
       </c>
       <c r="H32" t="n">
-        <v>63.72957914662743</v>
+        <v>63.72957914662751</v>
       </c>
       <c r="I32" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J32" t="n">
         <v>171.2683996847217</v>
       </c>
       <c r="K32" t="n">
-        <v>375.9831015629836</v>
+        <v>375.9831015629835</v>
       </c>
       <c r="L32" t="n">
-        <v>634.0887466946299</v>
+        <v>634.0887466946298</v>
       </c>
       <c r="M32" t="n">
-        <v>926.3413643191341</v>
+        <v>926.3413643191352</v>
       </c>
       <c r="N32" t="n">
-        <v>1213.060921153724</v>
+        <v>1213.060921153726</v>
       </c>
       <c r="O32" t="n">
-        <v>1458.669911688506</v>
+        <v>1458.669911688507</v>
       </c>
       <c r="P32" t="n">
-        <v>1655.109002436483</v>
+        <v>1655.109002436484</v>
       </c>
       <c r="Q32" t="n">
-        <v>1777.662612870714</v>
+        <v>1777.662612870716</v>
       </c>
       <c r="R32" t="n">
-        <v>1796.083086100841</v>
+        <v>1796.083086100842</v>
       </c>
       <c r="S32" t="n">
         <v>1781.898883169497</v>
@@ -6740,7 +6740,7 @@
         <v>1501.572351998503</v>
       </c>
       <c r="X32" t="n">
-        <v>1353.778677628125</v>
+        <v>1353.778677628126</v>
       </c>
       <c r="Y32" t="n">
         <v>1183.2548485873</v>
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>370.2649818395706</v>
+        <v>559.6772561066069</v>
       </c>
       <c r="C33" t="n">
         <v>370.2649818395706</v>
@@ -6762,28 +6762,28 @@
         <v>209.4848656006024</v>
       </c>
       <c r="E33" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F33" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G33" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H33" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I33" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J33" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K33" t="n">
         <v>73.91372875432148</v>
       </c>
       <c r="L33" t="n">
-        <v>191.2852937261398</v>
+        <v>191.2852937261397</v>
       </c>
       <c r="M33" t="n">
         <v>373.0070382066378</v>
@@ -6807,22 +6807,22 @@
         <v>786.4450312622841</v>
       </c>
       <c r="T33" t="n">
-        <v>784.9266249210008</v>
+        <v>784.9266249210007</v>
       </c>
       <c r="U33" t="n">
-        <v>760.9255330009024</v>
+        <v>760.9255330009022</v>
       </c>
       <c r="V33" t="n">
-        <v>517.8458149045365</v>
+        <v>733.4690236601249</v>
       </c>
       <c r="W33" t="n">
-        <v>384.1672517763694</v>
+        <v>679.6936631460048</v>
       </c>
       <c r="X33" t="n">
-        <v>380.2824661486544</v>
+        <v>675.8088775182898</v>
       </c>
       <c r="Y33" t="n">
-        <v>370.2649818395706</v>
+        <v>665.791393209206</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.41321716505084</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="C34" t="n">
-        <v>71.41321716505084</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D34" t="n">
-        <v>71.41321716505084</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E34" t="n">
-        <v>71.41321716505084</v>
+        <v>52.87661984585773</v>
       </c>
       <c r="F34" t="n">
-        <v>145.2079106701411</v>
+        <v>126.6713133509479</v>
       </c>
       <c r="G34" t="n">
-        <v>145.2079106701411</v>
+        <v>170.9900022928406</v>
       </c>
       <c r="H34" t="n">
-        <v>170.946497557055</v>
+        <v>218.157482203491</v>
       </c>
       <c r="I34" t="n">
-        <v>170.946497557055</v>
+        <v>266.289838122444</v>
       </c>
       <c r="J34" t="n">
-        <v>170.946497557055</v>
+        <v>266.289838122444</v>
       </c>
       <c r="K34" t="n">
-        <v>170.946497557055</v>
+        <v>266.289838122444</v>
       </c>
       <c r="L34" t="n">
-        <v>170.946497557055</v>
+        <v>266.289838122444</v>
       </c>
       <c r="M34" t="n">
-        <v>170.946497557055</v>
+        <v>266.289838122444</v>
       </c>
       <c r="N34" t="n">
-        <v>170.946497557055</v>
+        <v>266.289838122444</v>
       </c>
       <c r="O34" t="n">
-        <v>170.946497557055</v>
+        <v>266.289838122444</v>
       </c>
       <c r="P34" t="n">
-        <v>170.946497557055</v>
+        <v>266.289838122444</v>
       </c>
       <c r="Q34" t="n">
-        <v>256.3464833623374</v>
+        <v>266.289838122444</v>
       </c>
       <c r="R34" t="n">
-        <v>266.2898381224435</v>
+        <v>266.289838122444</v>
       </c>
       <c r="S34" t="n">
-        <v>244.0994937177466</v>
+        <v>244.099493717747</v>
       </c>
       <c r="T34" t="n">
-        <v>233.7015767757516</v>
+        <v>233.701576775752</v>
       </c>
       <c r="U34" t="n">
-        <v>157.7525140695574</v>
+        <v>157.7525140695577</v>
       </c>
       <c r="V34" t="n">
-        <v>125.7908590024694</v>
+        <v>125.7908590024696</v>
       </c>
       <c r="W34" t="n">
-        <v>48.17092928398194</v>
+        <v>48.17092928398208</v>
       </c>
       <c r="X34" t="n">
-        <v>39.63307197063872</v>
+        <v>39.6330719706388</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0119765837455</v>
+        <v>623.0119765837461</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0768043248349</v>
+        <v>544.0768043248354</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7005590749663</v>
+        <v>477.7005590749668</v>
       </c>
       <c r="E35" t="n">
-        <v>377.277089159028</v>
+        <v>377.2770891590283</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8128742144258</v>
+        <v>244.8128742144263</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55210643589356</v>
+        <v>96.55210643589371</v>
       </c>
       <c r="H35" t="n">
-        <v>20.8366715579703</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="I35" t="n">
-        <v>51.58890486516582</v>
+        <v>51.58890486516572</v>
       </c>
       <c r="J35" t="n">
-        <v>244.942416002927</v>
+        <v>51.58890486516572</v>
       </c>
       <c r="K35" t="n">
-        <v>502.7962265328095</v>
+        <v>51.58890486516572</v>
       </c>
       <c r="L35" t="n">
-        <v>549.5695647631035</v>
+        <v>98.36224309545966</v>
       </c>
       <c r="M35" t="n">
-        <v>740.8481777373329</v>
+        <v>356.2160536253424</v>
       </c>
       <c r="N35" t="n">
-        <v>816.235427670571</v>
+        <v>431.6033035585805</v>
       </c>
       <c r="O35" t="n">
-        <v>850.5121113040005</v>
+        <v>585.1372597549603</v>
       </c>
       <c r="P35" t="n">
-        <v>850.5121113040005</v>
+        <v>839.5831236779932</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.5121113040005</v>
+        <v>1020.143507287281</v>
       </c>
       <c r="R35" t="n">
-        <v>926.9393577091838</v>
+        <v>1020.143507287281</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0441935912293</v>
+        <v>1020.143507287281</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.14350728728</v>
+        <v>1020.143507287281</v>
       </c>
       <c r="U35" t="n">
-        <v>1041.833577898515</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5203387426616</v>
+        <v>992.5203387426627</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0185337114399</v>
+        <v>926.0185337114408</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4094049742189</v>
+        <v>837.4094049742197</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0701215665496</v>
+        <v>726.0701215665503</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.8366715579703</v>
+        <v>544.239865986348</v>
       </c>
       <c r="C36" t="n">
-        <v>20.8366715579703</v>
+        <v>354.8275917193118</v>
       </c>
       <c r="D36" t="n">
-        <v>20.8366715579703</v>
+        <v>354.8275917193118</v>
       </c>
       <c r="E36" t="n">
-        <v>20.8366715579703</v>
+        <v>181.2643878407262</v>
       </c>
       <c r="F36" t="n">
-        <v>20.8366715579703</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="G36" t="n">
-        <v>20.8366715579703</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="H36" t="n">
-        <v>20.8366715579703</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="I36" t="n">
-        <v>20.8366715579703</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="J36" t="n">
-        <v>20.8366715579703</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="K36" t="n">
-        <v>58.82873859027495</v>
+        <v>58.82873859027497</v>
       </c>
       <c r="L36" t="n">
         <v>176.2003035620932</v>
@@ -7035,31 +7035,31 @@
         <v>778.2757042100239</v>
       </c>
       <c r="Q36" t="n">
-        <v>771.3600410982376</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="R36" t="n">
-        <v>771.3600410982376</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="S36" t="n">
-        <v>771.3600410982376</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="T36" t="n">
-        <v>771.3600410982376</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="U36" t="n">
-        <v>771.3600410982376</v>
+        <v>544.239865986348</v>
       </c>
       <c r="V36" t="n">
-        <v>771.3600410982376</v>
+        <v>544.239865986348</v>
       </c>
       <c r="W36" t="n">
-        <v>644.5212119328814</v>
+        <v>544.239865986348</v>
       </c>
       <c r="X36" t="n">
-        <v>425.0132175495777</v>
+        <v>544.239865986348</v>
       </c>
       <c r="Y36" t="n">
-        <v>199.3725244849054</v>
+        <v>544.239865986348</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>56.03657271633963</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="C37" t="n">
-        <v>56.03657271633963</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="D37" t="n">
-        <v>56.03657271633963</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="E37" t="n">
-        <v>56.03657271633963</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="F37" t="n">
-        <v>56.03657271633963</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="G37" t="n">
-        <v>56.03657271633963</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="H37" t="n">
-        <v>56.03657271633963</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03657271633963</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03657271633963</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03657271633963</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03657271633963</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03657271633963</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03657271633963</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03657271633963</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03657271633963</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03657271633963</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03657271633963</v>
+        <v>56.03657271633988</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03657271633963</v>
+        <v>56.03657271633988</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03657271633963</v>
+        <v>56.03657271633988</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330174</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330174</v>
       </c>
       <c r="W37" t="n">
-        <v>20.8366715579703</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="X37" t="n">
-        <v>56.03657271633963</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="Y37" t="n">
-        <v>56.03657271633963</v>
+        <v>20.83667155797033</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0119765837459</v>
+        <v>623.0119765837464</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0768043248353</v>
+        <v>544.0768043248357</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7005590749666</v>
+        <v>477.700559074967</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2770891590284</v>
+        <v>377.2770891590287</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8128742144262</v>
+        <v>244.8128742144264</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55210643589356</v>
+        <v>96.55210643589371</v>
       </c>
       <c r="H38" t="n">
-        <v>20.8366715579703</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="I38" t="n">
-        <v>51.58890486516582</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="J38" t="n">
-        <v>244.942416002927</v>
+        <v>214.1901826957314</v>
       </c>
       <c r="K38" t="n">
-        <v>244.942416002927</v>
+        <v>214.1901826957314</v>
       </c>
       <c r="L38" t="n">
-        <v>291.715754233221</v>
+        <v>472.0439932256141</v>
       </c>
       <c r="M38" t="n">
-        <v>372.6360649563727</v>
+        <v>552.9643039487659</v>
       </c>
       <c r="N38" t="n">
-        <v>448.0233148896108</v>
+        <v>628.3515538820039</v>
       </c>
       <c r="O38" t="n">
-        <v>705.8771254194933</v>
+        <v>662.6282375154335</v>
       </c>
       <c r="P38" t="n">
-        <v>705.8771254194933</v>
+        <v>763.1558772728101</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.5121113040005</v>
+        <v>943.7162608820979</v>
       </c>
       <c r="R38" t="n">
-        <v>926.9393577091838</v>
+        <v>1020.143507287281</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0441935912293</v>
+        <v>1020.143507287281</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.14350728728</v>
+        <v>1020.143507287281</v>
       </c>
       <c r="U38" t="n">
-        <v>1041.833577898515</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5203387426619</v>
+        <v>992.5203387426629</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0185337114401</v>
+        <v>926.018533711441</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4094049742191</v>
+        <v>837.4094049742199</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0701215665499</v>
+        <v>726.0701215665506</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>234.2524531407814</v>
+        <v>181.2643878407262</v>
       </c>
       <c r="C39" t="n">
-        <v>234.2524531407814</v>
+        <v>181.2643878407262</v>
       </c>
       <c r="D39" t="n">
-        <v>234.2524531407814</v>
+        <v>181.2643878407262</v>
       </c>
       <c r="E39" t="n">
-        <v>234.2524531407814</v>
+        <v>181.2643878407262</v>
       </c>
       <c r="F39" t="n">
-        <v>73.8247368580255</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="G39" t="n">
-        <v>73.8247368580255</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="H39" t="n">
-        <v>73.8247368580255</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="I39" t="n">
-        <v>73.8247368580255</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="J39" t="n">
-        <v>20.8366715579703</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="K39" t="n">
-        <v>58.82873859027495</v>
+        <v>58.82873859027497</v>
       </c>
       <c r="L39" t="n">
         <v>176.2003035620932</v>
@@ -7275,28 +7275,28 @@
         <v>771.3600410982376</v>
       </c>
       <c r="R39" t="n">
-        <v>691.0183689133405</v>
+        <v>771.3600410982376</v>
       </c>
       <c r="S39" t="n">
-        <v>691.0183689133405</v>
+        <v>771.3600410982376</v>
       </c>
       <c r="T39" t="n">
-        <v>473.8767538164685</v>
+        <v>771.3600410982376</v>
       </c>
       <c r="U39" t="n">
-        <v>234.2524531407814</v>
+        <v>531.7357404225505</v>
       </c>
       <c r="V39" t="n">
-        <v>234.2524531407814</v>
+        <v>359.8002407676613</v>
       </c>
       <c r="W39" t="n">
-        <v>234.2524531407814</v>
+        <v>359.8002407676613</v>
       </c>
       <c r="X39" t="n">
-        <v>234.2524531407814</v>
+        <v>359.8002407676613</v>
       </c>
       <c r="Y39" t="n">
-        <v>234.2524531407814</v>
+        <v>359.8002407676613</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.8366715579703</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="C40" t="n">
-        <v>20.8366715579703</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="D40" t="n">
-        <v>20.8366715579703</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="E40" t="n">
-        <v>20.8366715579703</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="F40" t="n">
-        <v>20.8366715579703</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="G40" t="n">
-        <v>20.8366715579703</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="H40" t="n">
-        <v>20.8366715579703</v>
+        <v>56.03657271633988</v>
       </c>
       <c r="I40" t="n">
-        <v>20.8366715579703</v>
+        <v>56.03657271633988</v>
       </c>
       <c r="J40" t="n">
-        <v>20.8366715579703</v>
+        <v>56.03657271633988</v>
       </c>
       <c r="K40" t="n">
-        <v>20.8366715579703</v>
+        <v>56.03657271633988</v>
       </c>
       <c r="L40" t="n">
-        <v>20.8366715579703</v>
+        <v>56.03657271633988</v>
       </c>
       <c r="M40" t="n">
-        <v>20.8366715579703</v>
+        <v>56.03657271633988</v>
       </c>
       <c r="N40" t="n">
-        <v>20.8366715579703</v>
+        <v>56.03657271633988</v>
       </c>
       <c r="O40" t="n">
-        <v>20.8366715579703</v>
+        <v>56.03657271633988</v>
       </c>
       <c r="P40" t="n">
-        <v>20.8366715579703</v>
+        <v>56.03657271633988</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.8366715579703</v>
+        <v>56.03657271633988</v>
       </c>
       <c r="R40" t="n">
-        <v>20.8366715579703</v>
+        <v>56.03657271633988</v>
       </c>
       <c r="S40" t="n">
-        <v>20.8366715579703</v>
+        <v>56.03657271633988</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03657271633963</v>
+        <v>56.03657271633988</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330174</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330174</v>
       </c>
       <c r="W40" t="n">
-        <v>20.8366715579703</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="X40" t="n">
-        <v>20.8366715579703</v>
+        <v>20.83667155797033</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.8366715579703</v>
+        <v>20.83667155797033</v>
       </c>
     </row>
     <row r="41">
@@ -7409,28 +7409,28 @@
         <v>28.06910159062234</v>
       </c>
       <c r="J41" t="n">
-        <v>190.670379421188</v>
+        <v>186.668031993536</v>
       </c>
       <c r="K41" t="n">
-        <v>190.670379421188</v>
+        <v>418.6372737396588</v>
       </c>
       <c r="L41" t="n">
-        <v>237.443717651482</v>
+        <v>703.9974587391659</v>
       </c>
       <c r="M41" t="n">
-        <v>556.9508751438469</v>
+        <v>784.9177694623177</v>
       </c>
       <c r="N41" t="n">
-        <v>870.9249718462984</v>
+        <v>1098.891866164769</v>
       </c>
       <c r="O41" t="n">
-        <v>1143.788502248941</v>
+        <v>1371.755396567412</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.272233167332</v>
+        <v>1371.755396567412</v>
       </c>
       <c r="Q41" t="n">
-        <v>1326.080383469424</v>
+        <v>1371.755396567412</v>
       </c>
       <c r="R41" t="n">
         <v>1371.755396567412</v>
@@ -7464,40 +7464,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>270.4694411577138</v>
+        <v>752.6250280413802</v>
       </c>
       <c r="C42" t="n">
-        <v>81.05716689067755</v>
+        <v>563.2127537743439</v>
       </c>
       <c r="D42" t="n">
-        <v>81.05716689067755</v>
+        <v>402.4326375353756</v>
       </c>
       <c r="E42" t="n">
-        <v>81.05716689067755</v>
+        <v>228.8694336567901</v>
       </c>
       <c r="F42" t="n">
-        <v>81.05716689067755</v>
+        <v>178.3159952165401</v>
       </c>
       <c r="G42" t="n">
-        <v>81.05716689067755</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="H42" t="n">
-        <v>81.05716689067755</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="I42" t="n">
-        <v>81.05716689067755</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="J42" t="n">
         <v>28.06910159062234</v>
       </c>
       <c r="K42" t="n">
-        <v>66.061168622927</v>
+        <v>66.06116862292698</v>
       </c>
       <c r="L42" t="n">
-        <v>183.4327335947453</v>
+        <v>183.4327335947452</v>
       </c>
       <c r="M42" t="n">
-        <v>365.1544780752434</v>
+        <v>365.1544780752433</v>
       </c>
       <c r="N42" t="n">
         <v>570.1057459690931</v>
@@ -7527,13 +7527,13 @@
         <v>778.5924711308896</v>
       </c>
       <c r="W42" t="n">
-        <v>715.6181286056899</v>
+        <v>752.6250280413802</v>
       </c>
       <c r="X42" t="n">
-        <v>496.1101342223862</v>
+        <v>752.6250280413802</v>
       </c>
       <c r="Y42" t="n">
-        <v>270.4694411577138</v>
+        <v>752.6250280413802</v>
       </c>
     </row>
     <row r="43">
@@ -7649,28 +7649,28 @@
         <v>190.670379421188</v>
       </c>
       <c r="K44" t="n">
-        <v>422.6396211673108</v>
+        <v>238.0473264929547</v>
       </c>
       <c r="L44" t="n">
-        <v>707.999806166818</v>
+        <v>523.4075114924618</v>
       </c>
       <c r="M44" t="n">
-        <v>1027.506963659183</v>
+        <v>842.9146689848268</v>
       </c>
       <c r="N44" t="n">
-        <v>1341.481060361634</v>
+        <v>918.3019189180649</v>
       </c>
       <c r="O44" t="n">
-        <v>1375.757743995064</v>
+        <v>952.5786025514944</v>
       </c>
       <c r="P44" t="n">
-        <v>1375.757743995064</v>
+        <v>1176.272233167332</v>
       </c>
       <c r="Q44" t="n">
-        <v>1375.757743995064</v>
+        <v>1326.080383469424</v>
       </c>
       <c r="R44" t="n">
-        <v>1375.757743995064</v>
+        <v>1371.755396567412</v>
       </c>
       <c r="S44" t="n">
         <v>1385.107999142262</v>
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>266.114183764815</v>
+        <v>378.2614920966269</v>
       </c>
       <c r="C45" t="n">
-        <v>266.114183764815</v>
+        <v>188.8492178295906</v>
       </c>
       <c r="D45" t="n">
-        <v>105.3340675258468</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="E45" t="n">
         <v>28.06910159062234</v>
@@ -7728,13 +7728,13 @@
         <v>28.06910159062234</v>
       </c>
       <c r="K45" t="n">
-        <v>66.061168622927</v>
+        <v>66.06116862292698</v>
       </c>
       <c r="L45" t="n">
-        <v>183.4327335947453</v>
+        <v>183.4327335947452</v>
       </c>
       <c r="M45" t="n">
-        <v>365.1544780752434</v>
+        <v>365.1544780752433</v>
       </c>
       <c r="N45" t="n">
         <v>570.1057459690931</v>
@@ -7755,22 +7755,22 @@
         <v>778.5924711308896</v>
       </c>
       <c r="T45" t="n">
-        <v>778.5924711308896</v>
+        <v>647.6600613663355</v>
       </c>
       <c r="U45" t="n">
-        <v>778.5924711308896</v>
+        <v>647.6600613663355</v>
       </c>
       <c r="V45" t="n">
-        <v>535.5127530345237</v>
+        <v>647.6600613663355</v>
       </c>
       <c r="W45" t="n">
-        <v>266.114183764815</v>
+        <v>378.2614920966269</v>
       </c>
       <c r="X45" t="n">
-        <v>266.114183764815</v>
+        <v>378.2614920966269</v>
       </c>
       <c r="Y45" t="n">
-        <v>266.114183764815</v>
+        <v>378.2614920966269</v>
       </c>
     </row>
     <row r="46">
@@ -7801,37 +7801,37 @@
         <v>28.06910159062234</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06910159062234</v>
+        <v>103.4559973774363</v>
       </c>
       <c r="J46" t="n">
-        <v>28.06910159062234</v>
+        <v>103.4559973774363</v>
       </c>
       <c r="K46" t="n">
-        <v>130.1759968085602</v>
+        <v>103.4559973774363</v>
       </c>
       <c r="L46" t="n">
-        <v>130.1759968085602</v>
+        <v>103.4559973774363</v>
       </c>
       <c r="M46" t="n">
-        <v>130.1759968085602</v>
+        <v>103.4559973774363</v>
       </c>
       <c r="N46" t="n">
-        <v>130.1759968085602</v>
+        <v>103.4559973774363</v>
       </c>
       <c r="O46" t="n">
-        <v>130.1759968085602</v>
+        <v>103.4559973774363</v>
       </c>
       <c r="P46" t="n">
-        <v>130.1759968085602</v>
+        <v>103.4559973774363</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.1759968085602</v>
+        <v>113.1124553355487</v>
       </c>
       <c r="R46" t="n">
-        <v>130.1759968085602</v>
+        <v>113.1124553355487</v>
       </c>
       <c r="S46" t="n">
-        <v>130.1759968085602</v>
+        <v>113.1124553355487</v>
       </c>
       <c r="T46" t="n">
         <v>130.1759968085602</v>
@@ -8769,7 +8769,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.3734735841509</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1547529041439</v>
+        <v>292.1547529041438</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9015,7 +9015,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1547529041437</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9243,7 +9243,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.3734735841509</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9717,7 +9717,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841514</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1547529041437</v>
+        <v>292.154752904144</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.195214002696616</v>
+        <v>160.1187971154281</v>
       </c>
       <c r="C11" t="n">
         <v>171.8758480566236</v>
       </c>
       <c r="D11" t="n">
-        <v>159.4425103176721</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>193.149262737081</v>
+        <v>4.586885686499386</v>
       </c>
       <c r="F11" t="n">
-        <v>224.8696003154583</v>
+        <v>36.30722326487671</v>
       </c>
       <c r="G11" t="n">
         <v>240.5081876210496</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.6883080494461</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.66716559384199</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.53078872718775</v>
+        <v>16.5307887271877</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.17968824550869</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.13476116065503</v>
       </c>
       <c r="U11" t="n">
-        <v>34.73335749901912</v>
+        <v>71.82086528673099</v>
       </c>
       <c r="V11" t="n">
         <v>142.5501342845968</v>
       </c>
       <c r="W11" t="n">
-        <v>159.5668145012117</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.4530649701509</v>
       </c>
       <c r="Y11" t="n">
-        <v>203.9559180938947</v>
+        <v>203.9559180938946</v>
       </c>
     </row>
     <row r="12">
@@ -23495,19 +23495,19 @@
         <v>195.7575910532781</v>
       </c>
       <c r="C14" t="n">
-        <v>171.8758480566236</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>29.25359157372802</v>
+        <v>159.442510317672</v>
       </c>
       <c r="E14" t="n">
-        <v>193.149262737081</v>
+        <v>193.1492627370809</v>
       </c>
       <c r="F14" t="n">
-        <v>224.8696003154583</v>
+        <v>224.8696003154582</v>
       </c>
       <c r="G14" t="n">
-        <v>51.9458105704681</v>
+        <v>51.94581057046804</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>41.68692931267854</v>
       </c>
       <c r="V14" t="n">
         <v>142.5501342845968</v>
       </c>
       <c r="W14" t="n">
-        <v>159.5668145012117</v>
+        <v>159.5668145012116</v>
       </c>
       <c r="X14" t="n">
         <v>181.4530649701509</v>
       </c>
       <c r="Y14" t="n">
-        <v>203.9559180938947</v>
+        <v>203.9559180938946</v>
       </c>
     </row>
     <row r="15">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-2.984279490192421e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1160009.597109435</v>
+        <v>1160009.597109436</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1160009.597109435</v>
+        <v>1160009.597109436</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>264579.5985529378</v>
       </c>
       <c r="C2" t="n">
+        <v>264579.5985529378</v>
+      </c>
+      <c r="D2" t="n">
         <v>264579.5985529379</v>
       </c>
-      <c r="D2" t="n">
-        <v>264579.5985529377</v>
-      </c>
       <c r="E2" t="n">
-        <v>227997.0267061437</v>
+        <v>227997.0267061436</v>
       </c>
       <c r="F2" t="n">
         <v>227997.0267061437</v>
       </c>
       <c r="G2" t="n">
-        <v>265115.5646575606</v>
+        <v>265115.5646575607</v>
       </c>
       <c r="H2" t="n">
         <v>265115.5646575606</v>
       </c>
       <c r="I2" t="n">
+        <v>265115.5646575606</v>
+      </c>
+      <c r="J2" t="n">
         <v>265115.5646575605</v>
       </c>
-      <c r="J2" t="n">
-        <v>265115.5646575607</v>
-      </c>
       <c r="K2" t="n">
-        <v>265115.5646575606</v>
+        <v>265115.5646575605</v>
       </c>
       <c r="L2" t="n">
         <v>265115.5646575607</v>
       </c>
       <c r="M2" t="n">
-        <v>265115.5646575608</v>
+        <v>265115.5646575607</v>
       </c>
       <c r="N2" t="n">
-        <v>265115.5646575608</v>
+        <v>265115.5646575605</v>
       </c>
       <c r="O2" t="n">
         <v>265115.5646575607</v>
       </c>
       <c r="P2" t="n">
-        <v>265115.5646575607</v>
+        <v>265115.5646575609</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95275.95397400482</v>
+        <v>95275.95397400478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95275.95397400485</v>
+        <v>95275.9539740047</v>
       </c>
       <c r="M3" t="n">
-        <v>46874.16014145967</v>
+        <v>46874.16014145963</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72403.48181660011</v>
+        <v>72403.48181660019</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>325346.2938622804</v>
       </c>
       <c r="F4" t="n">
-        <v>325346.2938622803</v>
+        <v>325346.2938622804</v>
       </c>
       <c r="G4" t="n">
         <v>395809.2702669877</v>
@@ -26436,7 +26436,7 @@
         <v>395809.2702669877</v>
       </c>
       <c r="I4" t="n">
-        <v>395809.2702669877</v>
+        <v>395809.2702669878</v>
       </c>
       <c r="J4" t="n">
         <v>396695.6540483334</v>
@@ -26445,7 +26445,7 @@
         <v>396695.6540483334</v>
       </c>
       <c r="L4" t="n">
-        <v>396695.6540483333</v>
+        <v>396695.6540483334</v>
       </c>
       <c r="M4" t="n">
         <v>395870.6270705321</v>
@@ -26488,22 +26488,22 @@
         <v>38676.1388413194</v>
       </c>
       <c r="I5" t="n">
-        <v>38676.1388413194</v>
+        <v>38676.13884131941</v>
       </c>
       <c r="J5" t="n">
         <v>47453.77647951488</v>
       </c>
       <c r="K5" t="n">
-        <v>47453.77647951487</v>
+        <v>47453.7764795149</v>
       </c>
       <c r="L5" t="n">
-        <v>47453.77647951488</v>
+        <v>47453.77647951489</v>
       </c>
       <c r="M5" t="n">
-        <v>40915.01366600499</v>
+        <v>40915.013666005</v>
       </c>
       <c r="N5" t="n">
-        <v>40915.01366600499</v>
+        <v>40915.013666005</v>
       </c>
       <c r="O5" t="n">
         <v>43800.23675152496</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-204570.6400683775</v>
+        <v>-204575.1064525826</v>
       </c>
       <c r="C6" t="n">
-        <v>-204570.6400683775</v>
+        <v>-204575.1064525827</v>
       </c>
       <c r="D6" t="n">
-        <v>-204570.6400683775</v>
+        <v>-204575.1064525826</v>
       </c>
       <c r="E6" t="n">
-        <v>-406326.0554633616</v>
+        <v>-406635.3766129568</v>
       </c>
       <c r="F6" t="n">
-        <v>-126013.2132791552</v>
+        <v>-126322.5344287505</v>
       </c>
       <c r="G6" t="n">
-        <v>-264645.7984247514</v>
+        <v>-264645.7984247513</v>
       </c>
       <c r="H6" t="n">
         <v>-169369.8444507465</v>
@@ -26543,25 +26543,25 @@
         <v>-169369.8444507466</v>
       </c>
       <c r="J6" t="n">
-        <v>-322678.8693946288</v>
+        <v>-322678.869394629</v>
       </c>
       <c r="K6" t="n">
-        <v>-179033.8658702876</v>
+        <v>-179033.8658702878</v>
       </c>
       <c r="L6" t="n">
-        <v>-274309.8198442924</v>
+        <v>-274309.8198442923</v>
       </c>
       <c r="M6" t="n">
-        <v>-218544.2362204359</v>
+        <v>-218544.236220436</v>
       </c>
       <c r="N6" t="n">
-        <v>-171670.0760789763</v>
+        <v>-171670.0760789765</v>
       </c>
       <c r="O6" t="n">
-        <v>-247346.0243538342</v>
+        <v>-247346.0243538343</v>
       </c>
       <c r="P6" t="n">
-        <v>-174942.5425372341</v>
+        <v>-174942.5425372339</v>
       </c>
     </row>
   </sheetData>
@@ -26707,19 +26707,19 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J2" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K2" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="L2" t="n">
         <v>213.4669766680327</v>
       </c>
       <c r="M2" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="N2" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="O2" t="n">
         <v>240.9968149183972</v>
@@ -26808,22 +26808,22 @@
         <v>188.5623770505815</v>
       </c>
       <c r="I4" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="J4" t="n">
-        <v>449.0207715252105</v>
+        <v>449.0207715252104</v>
       </c>
       <c r="K4" t="n">
-        <v>449.0207715252103</v>
+        <v>449.0207715252106</v>
       </c>
       <c r="L4" t="n">
-        <v>449.0207715252103</v>
+        <v>449.0207715252106</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4583944746288</v>
+        <v>260.4583944746291</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4583944746288</v>
+        <v>260.4583944746291</v>
       </c>
       <c r="O4" t="n">
         <v>350.8637698827793</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.37203420052671</v>
+        <v>94.3720342005268</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.0949424675061</v>
+        <v>119.0949424675059</v>
       </c>
       <c r="M2" t="n">
-        <v>58.59270017682459</v>
+        <v>58.59270017682454</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.30917227406661</v>
+        <v>63.30917227406681</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.458394474629</v>
+        <v>260.4583944746287</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.40537540815046</v>
+        <v>90.40537540815018</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.37203420052671</v>
+        <v>94.3720342005268</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28114,13 +28114,13 @@
         <v>178.3296493245552</v>
       </c>
       <c r="K11" t="n">
-        <v>160.0433975822947</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>106.8246894514384</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -28129,7 +28129,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>178.3296493245552</v>
+        <v>53.21870813085631</v>
       </c>
       <c r="Q11" t="n">
         <v>178.3296493245552</v>
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.3296493245552</v>
+        <v>119.0212646880307</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28184,7 +28184,7 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H12" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>107.3572203790713</v>
@@ -28214,16 +28214,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="T12" t="n">
-        <v>26.40782189532177</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U12" t="n">
-        <v>154.008405766466</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V12" t="n">
         <v>178.3296493245552</v>
@@ -28235,7 +28235,7 @@
         <v>178.3296493245552</v>
       </c>
       <c r="Y12" t="n">
-        <v>34.8219090834441</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="13">
@@ -28245,10 +28245,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D13" t="n">
         <v>178.3296493245552</v>
@@ -28257,40 +28257,40 @@
         <v>178.3296493245552</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G13" t="n">
         <v>168.7006242014745</v>
       </c>
       <c r="H13" t="n">
-        <v>165.8230575663656</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I13" t="n">
         <v>164.8484353357569</v>
       </c>
       <c r="J13" t="n">
-        <v>178.3296493245552</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K13" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="L13" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M13" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N13" t="n">
+        <v>19.39696331599502</v>
+      </c>
+      <c r="O13" t="n">
         <v>178.3296493245552</v>
       </c>
-      <c r="O13" t="n">
-        <v>37.45757960830505</v>
-      </c>
       <c r="P13" t="n">
-        <v>115.5376062805815</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.3296493245552</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R13" t="n">
         <v>178.3296493245552</v>
@@ -28348,13 +28348,13 @@
         <v>178.3296493245552</v>
       </c>
       <c r="J14" t="n">
+        <v>76.75309993802784</v>
+      </c>
+      <c r="K14" t="n">
         <v>178.3296493245552</v>
       </c>
-      <c r="K14" t="n">
-        <v>6.684449518273205</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>141.3165808583654</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -28363,13 +28363,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>153.3589480640216</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.3296493245552</v>
+        <v>120.3033661104567</v>
       </c>
       <c r="R14" t="n">
         <v>178.3296493245552</v>
@@ -28412,10 +28412,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>93.1506534346734</v>
       </c>
       <c r="G15" t="n">
         <v>148.7444246896586</v>
@@ -28427,7 +28427,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28454,10 +28454,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>145.209303875789</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T15" t="n">
-        <v>26.40782189532177</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U15" t="n">
         <v>178.3296493245552</v>
@@ -28488,7 +28488,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>178.3296493245552</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
@@ -28509,25 +28509,25 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K16" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L16" t="n">
-        <v>32.12940745055727</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="M16" t="n">
-        <v>147.4697926415664</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="N16" t="n">
-        <v>178.3296493245552</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O16" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="P16" t="n">
-        <v>58.46036931460879</v>
+        <v>127.5051115072278</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.3296493245552</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R16" t="n">
         <v>178.3296493245552</v>
@@ -28588,7 +28588,7 @@
         <v>76.75309993802784</v>
       </c>
       <c r="K17" t="n">
-        <v>6.684449518273205</v>
+        <v>6.684449518273219</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,10 +28603,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.04365268017751</v>
+        <v>15.04365268017752</v>
       </c>
       <c r="Q17" t="n">
-        <v>245.4097000958763</v>
+        <v>278.2378280274712</v>
       </c>
       <c r="R17" t="n">
         <v>297.4245917920612</v>
@@ -28615,7 +28615,7 @@
         <v>297.4245917920612</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4245917920612</v>
+        <v>264.5964638604664</v>
       </c>
       <c r="U17" t="n">
         <v>297.4245917920612</v>
@@ -28640,10 +28640,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>112.4618839567887</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -28652,7 +28652,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>148.7444246896586</v>
@@ -28664,7 +28664,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J18" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>191.5874518930719</v>
+        <v>156.6864508559709</v>
       </c>
       <c r="T18" t="n">
         <v>214.9701989459033</v>
@@ -28700,16 +28700,16 @@
         <v>237.2280576689302</v>
       </c>
       <c r="V18" t="n">
-        <v>52.08654386482073</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>78.14220652643007</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>34.8219090834441</v>
       </c>
     </row>
     <row r="19">
@@ -28746,22 +28746,22 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K19" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L19" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M19" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N19" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O19" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P19" t="n">
-        <v>58.46036931460879</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q19" t="n">
         <v>127.204364743505</v>
@@ -28822,10 +28822,10 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J20" t="n">
-        <v>265.3154769886094</v>
+        <v>76.75309993802784</v>
       </c>
       <c r="K20" t="n">
-        <v>6.684449518273205</v>
+        <v>6.684449518273219</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,19 +28840,19 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.04365268017751</v>
+        <v>15.04365268017752</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.7227585741431</v>
+        <v>278.2378280274712</v>
       </c>
       <c r="R20" t="n">
         <v>297.4245917920612</v>
       </c>
       <c r="S20" t="n">
-        <v>227.5093375700639</v>
+        <v>264.5964638604665</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4644104852103</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="U20" t="n">
         <v>297.4245917920612</v>
@@ -28883,19 +28883,19 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>91.83335723726699</v>
       </c>
       <c r="I21" t="n">
         <v>107.3572203790713</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S21" t="n">
-        <v>3.025074842490341</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T21" t="n">
         <v>214.9701989459033</v>
@@ -28940,13 +28940,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>231.8035825399105</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>34.82190908344407</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -28983,22 +28983,22 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K22" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L22" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M22" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N22" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O22" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P22" t="n">
-        <v>58.46036931460879</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q22" t="n">
         <v>127.204364743505</v>
@@ -29056,13 +29056,13 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I23" t="n">
-        <v>240.9968149183972</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="J23" t="n">
-        <v>100.3527488800969</v>
+        <v>76.75309993802784</v>
       </c>
       <c r="K23" t="n">
-        <v>6.684449518273205</v>
+        <v>76.42047532699706</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,13 +29077,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.04365268017751</v>
+        <v>15.04365268017752</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.2378280274712</v>
+        <v>278.2378280274714</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4245917920612</v>
+        <v>194.860438051743</v>
       </c>
       <c r="S23" t="n">
         <v>297.4245917920612</v>
@@ -29138,7 +29138,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J24" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S24" t="n">
         <v>191.5874518930719</v>
@@ -29171,19 +29171,19 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U24" t="n">
-        <v>77.98882244344645</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>133.867870336973</v>
       </c>
       <c r="W24" t="n">
-        <v>78.14220652643007</v>
+        <v>78.1422065264299</v>
       </c>
       <c r="X24" t="n">
-        <v>28.75053738888909</v>
+        <v>28.75053738888892</v>
       </c>
       <c r="Y24" t="n">
-        <v>34.8219090834441</v>
+        <v>34.82190908344393</v>
       </c>
     </row>
     <row r="25">
@@ -29220,22 +29220,22 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K25" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L25" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M25" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N25" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O25" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P25" t="n">
-        <v>58.46036931460879</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q25" t="n">
         <v>127.204364743505</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="C26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="E26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="F26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="G26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="H26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="I26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="J26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="L26" t="n">
         <v>213.4669766680327</v>
       </c>
       <c r="M26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="O26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="P26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="S26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="27">
@@ -29351,19 +29351,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>36.15627978098624</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>148.7444246896586</v>
@@ -29375,7 +29375,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J27" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S27" t="n">
         <v>191.5874518930719</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U27" t="n">
-        <v>16.8298958317807</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V27" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W27" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X27" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="28">
@@ -29433,10 +29433,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -29451,55 +29451,55 @@
         <v>165.8230575663656</v>
       </c>
       <c r="I28" t="n">
-        <v>194.0354665177572</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J28" t="n">
         <v>120.2289512774728</v>
       </c>
       <c r="K28" t="n">
-        <v>213.4669766680327</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L28" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M28" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N28" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O28" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P28" t="n">
-        <v>58.46036931460879</v>
+        <v>175.8613748784248</v>
       </c>
       <c r="Q28" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R28" t="n">
-        <v>213.4669766680327</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="C29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="E29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="F29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="G29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="H29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="I29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="J29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="L29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="M29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="N29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="O29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="P29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="S29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="30">
@@ -29591,16 +29591,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>106.2286280354095</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>148.7444246896586</v>
@@ -29612,7 +29612,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J30" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S30" t="n">
         <v>191.5874518930719</v>
       </c>
       <c r="T30" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U30" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W30" t="n">
-        <v>16.82989583178076</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X30" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="31">
@@ -29694,22 +29694,22 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K31" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L31" t="n">
-        <v>88.81513806802855</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M31" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N31" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="P31" t="n">
-        <v>58.46036931460879</v>
+        <v>115.1460999320796</v>
       </c>
       <c r="Q31" t="n">
         <v>127.204364743505</v>
@@ -29718,25 +29718,25 @@
         <v>203.4231839810569</v>
       </c>
       <c r="S31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="32">
@@ -29779,10 +29779,10 @@
         <v>213.4669766680327</v>
       </c>
       <c r="M32" t="n">
+        <v>213.4669766680341</v>
+      </c>
+      <c r="N32" t="n">
         <v>213.4669766680327</v>
-      </c>
-      <c r="N32" t="n">
-        <v>213.4669766680323</v>
       </c>
       <c r="O32" t="n">
         <v>213.4669766680327</v>
@@ -29825,10 +29825,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>71.69749866609263</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -29849,7 +29849,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J33" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S33" t="n">
         <v>191.5874518930719</v>
@@ -29885,10 +29885,10 @@
         <v>213.4669766680327</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W33" t="n">
-        <v>134.3628060801261</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X33" t="n">
         <v>213.4669766680327</v>
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.4669766680327</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
@@ -29913,46 +29913,46 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>158.802361539337</v>
       </c>
       <c r="F34" t="n">
         <v>213.4669766680327</v>
       </c>
       <c r="G34" t="n">
-        <v>168.7006242014745</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="H34" t="n">
-        <v>191.82163017941</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="I34" t="n">
-        <v>164.8484353357569</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="J34" t="n">
         <v>120.2289512774728</v>
       </c>
       <c r="K34" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L34" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M34" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N34" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O34" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P34" t="n">
-        <v>58.46036931460879</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q34" t="n">
-        <v>213.4669766680327</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R34" t="n">
-        <v>213.4669766680327</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S34" t="n">
         <v>213.4669766680327</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="C35" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="D35" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="E35" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="F35" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="G35" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="H35" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="I35" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0596768448573</v>
+        <v>76.75309993802784</v>
       </c>
       <c r="K35" t="n">
-        <v>267.142843992902</v>
+        <v>6.684449518273219</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>111.4730325768462</v>
+        <v>178.7207068754859</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>120.4618914777275</v>
       </c>
       <c r="P35" t="n">
-        <v>15.04365268017751</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="Q35" t="n">
-        <v>89.67545097688969</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0596768448573</v>
+        <v>194.860438051743</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0596768448573</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T35" t="n">
-        <v>272.0596768448573</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="V35" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="W35" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="Y35" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
     </row>
     <row r="36">
@@ -30062,19 +30062,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>148.7444246896586</v>
@@ -30086,7 +30086,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J36" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,10 +30107,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S36" t="n">
         <v>191.5874518930719</v>
@@ -30119,19 +30119,19 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280576689302</v>
+        <v>5.532577827491053</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>141.134142703309</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30168,28 +30168,28 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K37" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L37" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M37" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N37" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O37" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P37" t="n">
-        <v>58.46036931460879</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q37" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R37" t="n">
-        <v>203.4231839810569</v>
+        <v>238.9786396965817</v>
       </c>
       <c r="S37" t="n">
         <v>235.4354176286827</v>
@@ -30198,16 +30198,16 @@
         <v>223.7609144406078</v>
       </c>
       <c r="U37" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="X37" t="n">
-        <v>257.4749111237671</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
         <v>217.1412728141684</v>
@@ -30220,37 +30220,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="C38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="D38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="E38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="F38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="G38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="H38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="I38" t="n">
-        <v>272.0596768448573</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="K38" t="n">
-        <v>6.684449518273205</v>
+        <v>6.684449518273219</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>213.212598282413</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30259,37 +30259,37 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>225.8354817135888</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>15.04365268017751</v>
+        <v>116.5867231421741</v>
       </c>
       <c r="Q38" t="n">
-        <v>235.7713963147758</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0596768448573</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0596768448573</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="V38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="W38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="Y38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -30323,7 +30323,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30347,19 +30347,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>55.17038288738601</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S39" t="n">
         <v>191.5874518930719</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>70.43277625706193</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
@@ -30396,7 +30396,7 @@
         <v>168.7006242014745</v>
       </c>
       <c r="H40" t="n">
-        <v>165.8230575663656</v>
+        <v>201.3785132818904</v>
       </c>
       <c r="I40" t="n">
         <v>164.8484353357569</v>
@@ -30405,22 +30405,22 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K40" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L40" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M40" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N40" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O40" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P40" t="n">
-        <v>58.46036931460879</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q40" t="n">
         <v>127.204364743505</v>
@@ -30432,16 +30432,16 @@
         <v>235.4354176286827</v>
       </c>
       <c r="T40" t="n">
-        <v>259.3163701561324</v>
+        <v>223.7609144406078</v>
       </c>
       <c r="U40" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30481,16 +30481,16 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J41" t="n">
+        <v>236.9540397389507</v>
+      </c>
+      <c r="K41" t="n">
         <v>240.9968149183972</v>
       </c>
-      <c r="K41" t="n">
-        <v>6.684449518273205</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="M41" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>240.9968149183972</v>
@@ -30499,13 +30499,13 @@
         <v>240.9968149183972</v>
       </c>
       <c r="P41" t="n">
-        <v>47.85550209269329</v>
+        <v>15.04365268017752</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.9968149183972</v>
+        <v>89.67545097688969</v>
       </c>
       <c r="R41" t="n">
-        <v>240.9968149183972</v>
+        <v>194.860438051743</v>
       </c>
       <c r="S41" t="n">
         <v>240.9968149183972</v>
@@ -30542,16 +30542,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>108.7755350640808</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>125.7337882414754</v>
@@ -30560,7 +30560,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S42" t="n">
         <v>191.5874518930719</v>
@@ -30599,13 +30599,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>204.3599844770638</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30645,19 +30645,19 @@
         <v>170.1507465537877</v>
       </c>
       <c r="L43" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M43" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N43" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O43" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P43" t="n">
-        <v>58.46036931460879</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q43" t="n">
         <v>127.204364743505</v>
@@ -30721,7 +30721,7 @@
         <v>240.9968149183972</v>
       </c>
       <c r="K44" t="n">
-        <v>240.9968149183972</v>
+        <v>54.53995161096679</v>
       </c>
       <c r="L44" t="n">
         <v>240.9968149183972</v>
@@ -30730,22 +30730,22 @@
         <v>240.9968149183972</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>240.9968149183972</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>15.04365268017751</v>
-      </c>
       <c r="Q44" t="n">
-        <v>89.67545097688969</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="R44" t="n">
-        <v>194.860438051743</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="S44" t="n">
-        <v>236.9540397389509</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="T44" t="n">
         <v>240.9968149183972</v>
@@ -30776,13 +30776,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>95.33525556392748</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30797,7 +30797,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J45" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30821,19 +30821,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S45" t="n">
         <v>191.5874518930719</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9701989459033</v>
+        <v>85.34711327899473</v>
       </c>
       <c r="U45" t="n">
         <v>237.2280576689302</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30873,31 +30873,31 @@
         <v>165.8230575663656</v>
       </c>
       <c r="I46" t="n">
-        <v>164.8484353357569</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J46" t="n">
         <v>120.2289512774728</v>
       </c>
       <c r="K46" t="n">
-        <v>170.1507465537877</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L46" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M46" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N46" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O46" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P46" t="n">
-        <v>58.46036931460879</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.204364743505</v>
+        <v>136.9583626809923</v>
       </c>
       <c r="R46" t="n">
         <v>203.4231839810569</v>
@@ -30906,7 +30906,7 @@
         <v>235.4354176286827</v>
       </c>
       <c r="T46" t="n">
-        <v>223.7609144406078</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="U46" t="n">
         <v>240.9968149183972</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H11" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I11" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J11" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K11" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L11" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M11" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N11" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O11" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P11" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R11" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S11" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T11" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U11" t="n">
         <v>0.03256441192055314</v>
@@ -31835,28 +31835,28 @@
         <v>2.103428681421368</v>
       </c>
       <c r="I12" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J12" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K12" t="n">
-        <v>35.16890724972321</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L12" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M12" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N12" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O12" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P12" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q12" t="n">
         <v>27.80117545144754</v>
@@ -31865,10 +31865,10 @@
         <v>13.52231444786598</v>
       </c>
       <c r="S12" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U12" t="n">
         <v>0.01432853325218916</v>
@@ -31908,28 +31908,28 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H13" t="n">
         <v>1.623399328074258</v>
       </c>
       <c r="I13" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J13" t="n">
         <v>12.90917850146574</v>
       </c>
       <c r="K13" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L13" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M13" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N13" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O13" t="n">
         <v>25.80839749785128</v>
@@ -31941,16 +31941,16 @@
         <v>15.28950021563597</v>
       </c>
       <c r="R13" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S13" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H14" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I14" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J14" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K14" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L14" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M14" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N14" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O14" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P14" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R14" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S14" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T14" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U14" t="n">
         <v>0.03256441192055314</v>
@@ -32072,28 +32072,28 @@
         <v>2.103428681421368</v>
       </c>
       <c r="I15" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J15" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K15" t="n">
-        <v>35.16890724972321</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L15" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M15" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N15" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O15" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P15" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q15" t="n">
         <v>27.80117545144754</v>
@@ -32102,10 +32102,10 @@
         <v>13.52231444786598</v>
       </c>
       <c r="S15" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U15" t="n">
         <v>0.01432853325218916</v>
@@ -32145,28 +32145,28 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H16" t="n">
         <v>1.623399328074258</v>
       </c>
       <c r="I16" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J16" t="n">
         <v>12.90917850146574</v>
       </c>
       <c r="K16" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L16" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M16" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N16" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O16" t="n">
         <v>25.80839749785128</v>
@@ -32178,16 +32178,16 @@
         <v>15.28950021563597</v>
       </c>
       <c r="R16" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S16" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H17" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I17" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J17" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K17" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L17" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M17" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N17" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O17" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P17" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R17" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S17" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T17" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U17" t="n">
         <v>0.03256441192055314</v>
@@ -32309,28 +32309,28 @@
         <v>2.103428681421368</v>
       </c>
       <c r="I18" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J18" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K18" t="n">
-        <v>35.16890724972321</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L18" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M18" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N18" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O18" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P18" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q18" t="n">
         <v>27.80117545144754</v>
@@ -32339,10 +32339,10 @@
         <v>13.52231444786598</v>
       </c>
       <c r="S18" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U18" t="n">
         <v>0.01432853325218916</v>
@@ -32382,28 +32382,28 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H19" t="n">
         <v>1.623399328074258</v>
       </c>
       <c r="I19" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J19" t="n">
         <v>12.90917850146574</v>
       </c>
       <c r="K19" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L19" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M19" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N19" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O19" t="n">
         <v>25.80839749785128</v>
@@ -32415,16 +32415,16 @@
         <v>15.28950021563597</v>
       </c>
       <c r="R19" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S19" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H20" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I20" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J20" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K20" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L20" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M20" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N20" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O20" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P20" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R20" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S20" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T20" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U20" t="n">
         <v>0.03256441192055314</v>
@@ -32546,28 +32546,28 @@
         <v>2.103428681421368</v>
       </c>
       <c r="I21" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J21" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K21" t="n">
-        <v>35.16890724972321</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L21" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M21" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N21" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O21" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P21" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q21" t="n">
         <v>27.80117545144754</v>
@@ -32576,10 +32576,10 @@
         <v>13.52231444786598</v>
       </c>
       <c r="S21" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U21" t="n">
         <v>0.01432853325218916</v>
@@ -32619,28 +32619,28 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H22" t="n">
         <v>1.623399328074258</v>
       </c>
       <c r="I22" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J22" t="n">
         <v>12.90917850146574</v>
       </c>
       <c r="K22" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L22" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M22" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N22" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O22" t="n">
         <v>25.80839749785128</v>
@@ -32652,16 +32652,16 @@
         <v>15.28950021563597</v>
       </c>
       <c r="R22" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S22" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,46 +32698,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H23" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I23" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J23" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K23" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L23" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M23" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N23" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O23" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P23" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R23" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S23" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T23" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U23" t="n">
         <v>0.03256441192055314</v>
@@ -32783,28 +32783,28 @@
         <v>2.103428681421368</v>
       </c>
       <c r="I24" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J24" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K24" t="n">
-        <v>35.16890724972321</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L24" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M24" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N24" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O24" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P24" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q24" t="n">
         <v>27.80117545144754</v>
@@ -32813,10 +32813,10 @@
         <v>13.52231444786598</v>
       </c>
       <c r="S24" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U24" t="n">
         <v>0.01432853325218916</v>
@@ -32856,28 +32856,28 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H25" t="n">
         <v>1.623399328074258</v>
       </c>
       <c r="I25" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J25" t="n">
         <v>12.90917850146574</v>
       </c>
       <c r="K25" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L25" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M25" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N25" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O25" t="n">
         <v>25.80839749785128</v>
@@ -32889,16 +32889,16 @@
         <v>15.28950021563597</v>
       </c>
       <c r="R25" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S25" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,46 +32935,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H26" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I26" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J26" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K26" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L26" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M26" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N26" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O26" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P26" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R26" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S26" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T26" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U26" t="n">
         <v>0.03256441192055314</v>
@@ -33020,28 +33020,28 @@
         <v>2.103428681421368</v>
       </c>
       <c r="I27" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J27" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K27" t="n">
-        <v>35.16890724972321</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L27" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M27" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N27" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O27" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P27" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q27" t="n">
         <v>27.80117545144754</v>
@@ -33050,10 +33050,10 @@
         <v>13.52231444786598</v>
       </c>
       <c r="S27" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U27" t="n">
         <v>0.01432853325218916</v>
@@ -33093,28 +33093,28 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H28" t="n">
         <v>1.623399328074258</v>
       </c>
       <c r="I28" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J28" t="n">
         <v>12.90917850146574</v>
       </c>
       <c r="K28" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L28" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M28" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N28" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O28" t="n">
         <v>25.80839749785128</v>
@@ -33126,16 +33126,16 @@
         <v>15.28950021563597</v>
       </c>
       <c r="R28" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S28" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,46 +33172,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H29" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I29" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J29" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K29" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L29" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M29" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N29" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O29" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P29" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R29" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S29" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T29" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U29" t="n">
         <v>0.03256441192055314</v>
@@ -33257,28 +33257,28 @@
         <v>2.103428681421368</v>
       </c>
       <c r="I30" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J30" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K30" t="n">
-        <v>35.16890724972321</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L30" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M30" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N30" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O30" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P30" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q30" t="n">
         <v>27.80117545144754</v>
@@ -33287,10 +33287,10 @@
         <v>13.52231444786598</v>
       </c>
       <c r="S30" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U30" t="n">
         <v>0.01432853325218916</v>
@@ -33330,28 +33330,28 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H31" t="n">
         <v>1.623399328074258</v>
       </c>
       <c r="I31" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J31" t="n">
         <v>12.90917850146574</v>
       </c>
       <c r="K31" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L31" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M31" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N31" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O31" t="n">
         <v>25.80839749785128</v>
@@ -33363,16 +33363,16 @@
         <v>15.28950021563597</v>
       </c>
       <c r="R31" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S31" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,46 +33409,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H32" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I32" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J32" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K32" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L32" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M32" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N32" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O32" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P32" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R32" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S32" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T32" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U32" t="n">
         <v>0.03256441192055314</v>
@@ -33494,28 +33494,28 @@
         <v>2.103428681421368</v>
       </c>
       <c r="I33" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J33" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K33" t="n">
-        <v>35.16890724972321</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L33" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M33" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N33" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O33" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P33" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q33" t="n">
         <v>27.80117545144754</v>
@@ -33524,10 +33524,10 @@
         <v>13.52231444786598</v>
       </c>
       <c r="S33" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U33" t="n">
         <v>0.01432853325218916</v>
@@ -33567,28 +33567,28 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H34" t="n">
         <v>1.623399328074258</v>
       </c>
       <c r="I34" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J34" t="n">
         <v>12.90917850146574</v>
       </c>
       <c r="K34" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L34" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M34" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N34" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O34" t="n">
         <v>25.80839749785128</v>
@@ -33600,16 +33600,16 @@
         <v>15.28950021563597</v>
       </c>
       <c r="R34" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S34" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H35" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I35" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J35" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K35" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L35" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M35" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N35" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O35" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P35" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R35" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S35" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T35" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U35" t="n">
         <v>0.03256441192055314</v>
@@ -33731,28 +33731,28 @@
         <v>2.103428681421368</v>
       </c>
       <c r="I36" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J36" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K36" t="n">
-        <v>35.16890724972321</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L36" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M36" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N36" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O36" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P36" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q36" t="n">
         <v>27.80117545144754</v>
@@ -33761,10 +33761,10 @@
         <v>13.52231444786598</v>
       </c>
       <c r="S36" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U36" t="n">
         <v>0.01432853325218916</v>
@@ -33804,28 +33804,28 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H37" t="n">
         <v>1.623399328074258</v>
       </c>
       <c r="I37" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J37" t="n">
         <v>12.90917850146574</v>
       </c>
       <c r="K37" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L37" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M37" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N37" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O37" t="n">
         <v>25.80839749785128</v>
@@ -33837,16 +33837,16 @@
         <v>15.28950021563597</v>
       </c>
       <c r="R37" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S37" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H38" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I38" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J38" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K38" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L38" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M38" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N38" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O38" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P38" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R38" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S38" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T38" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U38" t="n">
         <v>0.03256441192055314</v>
@@ -33968,28 +33968,28 @@
         <v>2.103428681421368</v>
       </c>
       <c r="I39" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J39" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K39" t="n">
-        <v>35.16890724972321</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L39" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M39" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N39" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O39" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P39" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q39" t="n">
         <v>27.80117545144754</v>
@@ -33998,10 +33998,10 @@
         <v>13.52231444786598</v>
       </c>
       <c r="S39" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U39" t="n">
         <v>0.01432853325218916</v>
@@ -34041,28 +34041,28 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H40" t="n">
         <v>1.623399328074258</v>
       </c>
       <c r="I40" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J40" t="n">
         <v>12.90917850146574</v>
       </c>
       <c r="K40" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L40" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M40" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N40" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O40" t="n">
         <v>25.80839749785128</v>
@@ -34074,16 +34074,16 @@
         <v>15.28950021563597</v>
       </c>
       <c r="R40" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S40" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H41" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I41" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J41" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K41" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L41" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M41" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N41" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O41" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P41" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R41" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S41" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T41" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U41" t="n">
         <v>0.03256441192055314</v>
@@ -34205,28 +34205,28 @@
         <v>2.103428681421368</v>
       </c>
       <c r="I42" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J42" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K42" t="n">
-        <v>35.16890724972321</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L42" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M42" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N42" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O42" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P42" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q42" t="n">
         <v>27.80117545144754</v>
@@ -34235,10 +34235,10 @@
         <v>13.52231444786598</v>
       </c>
       <c r="S42" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U42" t="n">
         <v>0.01432853325218916</v>
@@ -34278,28 +34278,28 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H43" t="n">
         <v>1.623399328074258</v>
       </c>
       <c r="I43" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J43" t="n">
         <v>12.90917850146574</v>
       </c>
       <c r="K43" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L43" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M43" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N43" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O43" t="n">
         <v>25.80839749785128</v>
@@ -34311,16 +34311,16 @@
         <v>15.28950021563597</v>
       </c>
       <c r="R43" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S43" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,46 +34357,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H44" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I44" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J44" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K44" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L44" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M44" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N44" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O44" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P44" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R44" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S44" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T44" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U44" t="n">
         <v>0.03256441192055314</v>
@@ -34442,28 +34442,28 @@
         <v>2.103428681421368</v>
       </c>
       <c r="I45" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J45" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K45" t="n">
-        <v>35.16890724972321</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L45" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M45" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N45" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O45" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P45" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q45" t="n">
         <v>27.80117545144754</v>
@@ -34472,10 +34472,10 @@
         <v>13.52231444786598</v>
       </c>
       <c r="S45" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U45" t="n">
         <v>0.01432853325218916</v>
@@ -34515,28 +34515,28 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H46" t="n">
         <v>1.623399328074258</v>
       </c>
       <c r="I46" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J46" t="n">
         <v>12.90917850146574</v>
       </c>
       <c r="K46" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L46" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M46" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N46" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O46" t="n">
         <v>25.80839749785128</v>
@@ -34548,16 +34548,16 @@
         <v>15.28950021563597</v>
       </c>
       <c r="R46" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S46" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.5765493865273</v>
+        <v>101.5765493865274</v>
       </c>
       <c r="K11" t="n">
-        <v>153.3589480640215</v>
+        <v>171.645199806282</v>
       </c>
       <c r="L11" t="n">
-        <v>47.24579619221612</v>
+        <v>47.2457961922161</v>
       </c>
       <c r="M11" t="n">
-        <v>81.73768759914316</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="N11" t="n">
-        <v>76.14873730630111</v>
+        <v>76.14873730630109</v>
       </c>
       <c r="O11" t="n">
-        <v>34.62291276103997</v>
+        <v>34.62291276103994</v>
       </c>
       <c r="P11" t="n">
-        <v>163.2859966443777</v>
+        <v>38.17505545067879</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.6541983476655</v>
+        <v>88.65419834766556</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.37582528515613</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L12" t="n">
         <v>118.55713633517</v>
@@ -35504,7 +35504,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P12" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,34 +35541,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.7127286595871567</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>11.8724683525829</v>
       </c>
       <c r="D13" t="n">
-        <v>33.14699907384448</v>
+        <v>33.14699907384454</v>
       </c>
       <c r="E13" t="n">
-        <v>36.6535081123302</v>
+        <v>36.65350811233026</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>39.4027671061086</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12.50659175818963</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.10069804708242</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>111.3171807686845</v>
+        <v>111.3171807686846</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35577,16 +35577,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>161.8325570947116</v>
+        <v>2.899871086151391</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>140.8720697162502</v>
       </c>
       <c r="P13" t="n">
-        <v>57.07723696597271</v>
+        <v>119.8692800099465</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.12528458105019</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.5765493865273</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>171.645199806282</v>
       </c>
       <c r="L14" t="n">
-        <v>47.24579619221612</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="M14" t="n">
-        <v>81.73768759914316</v>
+        <v>81.73768759914314</v>
       </c>
       <c r="N14" t="n">
-        <v>76.14873730630111</v>
+        <v>76.14873730630109</v>
       </c>
       <c r="O14" t="n">
-        <v>187.9818608250616</v>
+        <v>34.62291276103994</v>
       </c>
       <c r="P14" t="n">
         <v>163.2859966443777</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.6541983476655</v>
+        <v>30.627915133567</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515619</v>
       </c>
       <c r="L15" t="n">
         <v>118.55713633517</v>
@@ -35735,13 +35735,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N15" t="n">
-        <v>188.5623770505814</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="O15" t="n">
         <v>133.0740275578655</v>
       </c>
       <c r="P15" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35784,7 +35784,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>33.14699907384448</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35808,22 +35808,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>146.200241873998</v>
       </c>
       <c r="M16" t="n">
-        <v>122.2765541778197</v>
+        <v>153.1364108608085</v>
       </c>
       <c r="N16" t="n">
-        <v>161.8325570947116</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>140.8720697162501</v>
+        <v>140.8720697162502</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>69.04474219261903</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.12528458105019</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.427776873664</v>
+        <v>56.42777687366399</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.24579619221612</v>
+        <v>47.2457961922161</v>
       </c>
       <c r="M17" t="n">
-        <v>81.73768759914316</v>
+        <v>81.73768759914314</v>
       </c>
       <c r="N17" t="n">
-        <v>76.14873730630111</v>
+        <v>76.14873730630109</v>
       </c>
       <c r="O17" t="n">
-        <v>34.62291276103997</v>
+        <v>34.62291276103994</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>155.7342491189866</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="R17" t="n">
         <v>102.5641537403183</v>
@@ -35911,7 +35911,7 @@
         <v>69.91525422199729</v>
       </c>
       <c r="T17" t="n">
-        <v>74.96018130685094</v>
+        <v>42.13205337525618</v>
       </c>
       <c r="U17" t="n">
         <v>47.27407718077497</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.37582528515613</v>
+        <v>38.37582528515619</v>
       </c>
       <c r="L18" t="n">
         <v>118.55713633517</v>
@@ -35978,7 +35978,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P18" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,40 +36115,40 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.427776873664</v>
+        <v>56.42777687366399</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>47.2457961922161</v>
+      </c>
+      <c r="M20" t="n">
+        <v>81.73768759914314</v>
+      </c>
+      <c r="N20" t="n">
+        <v>76.14873730630109</v>
+      </c>
+      <c r="O20" t="n">
+        <v>34.62291276103994</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>188.5623770505815</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>47.24579619221612</v>
-      </c>
-      <c r="M20" t="n">
-        <v>81.73768759914316</v>
-      </c>
-      <c r="N20" t="n">
-        <v>76.14873730630111</v>
-      </c>
-      <c r="O20" t="n">
-        <v>34.62291276103997</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>112.0473075972534</v>
       </c>
       <c r="R20" t="n">
         <v>102.5641537403183</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>37.08712629040253</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>74.96018130685094</v>
       </c>
       <c r="U20" t="n">
         <v>47.27407718077497</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.37582528515622</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L21" t="n">
         <v>118.55713633517</v>
@@ -36215,7 +36215,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P21" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>56.42777687366399</v>
       </c>
       <c r="J23" t="n">
-        <v>23.59964894206908</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>69.73602580872384</v>
       </c>
       <c r="L23" t="n">
-        <v>47.24579619221612</v>
+        <v>47.2457961922161</v>
       </c>
       <c r="M23" t="n">
-        <v>81.73768759914316</v>
+        <v>81.73768759914314</v>
       </c>
       <c r="N23" t="n">
-        <v>76.14873730630111</v>
+        <v>76.14873730630109</v>
       </c>
       <c r="O23" t="n">
-        <v>34.62291276103997</v>
+        <v>34.62291276103994</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5641537403183</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>69.91525422199729</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515663</v>
       </c>
       <c r="L24" t="n">
         <v>118.55713633517</v>
@@ -36446,13 +36446,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N24" t="n">
-        <v>188.5623770505814</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="O24" t="n">
         <v>133.0740275578655</v>
       </c>
       <c r="P24" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>123.7915256911431</v>
       </c>
       <c r="R26" t="n">
-        <v>18.6065386162898</v>
+        <v>18.60653861628982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.37582528515622</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L27" t="n">
         <v>118.55713633517</v>
@@ -36689,7 +36689,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P27" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36729,10 +36729,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>47.00979569606039</v>
+        <v>47.00979569606042</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>68.28432641732206</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36747,13 +36747,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>29.18703118200035</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>146.4545081121621</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36768,13 +36768,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>117.401005563816</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.04379268697588</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>206.7825271497595</v>
       </c>
       <c r="L29" t="n">
-        <v>260.7127728602488</v>
+        <v>260.7127728602489</v>
       </c>
       <c r="M29" t="n">
         <v>295.2046642671759</v>
@@ -36850,10 +36850,10 @@
         <v>198.4233239878552</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.791525691143</v>
+        <v>123.7915256911431</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60653861628975</v>
+        <v>18.60653861628982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.37582528515622</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L30" t="n">
         <v>118.55713633517</v>
@@ -36926,7 +36926,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P30" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>56.68573061747129</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37002,10 +37002,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>176.0093970597276</v>
+        <v>176.0093970597277</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>56.68573061747082</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>136.7138767300049</v>
+        <v>136.7138767300048</v>
       </c>
       <c r="K32" t="n">
         <v>206.7825271497595</v>
@@ -37075,22 +37075,22 @@
         <v>260.7127728602488</v>
       </c>
       <c r="M32" t="n">
-        <v>295.2046642671759</v>
+        <v>295.2046642671772</v>
       </c>
       <c r="N32" t="n">
-        <v>289.6157139743334</v>
+        <v>289.6157139743337</v>
       </c>
       <c r="O32" t="n">
-        <v>248.0898894290727</v>
+        <v>248.0898894290726</v>
       </c>
       <c r="P32" t="n">
         <v>198.4233239878552</v>
       </c>
       <c r="Q32" t="n">
-        <v>123.7915256911431</v>
+        <v>123.791525691143</v>
       </c>
       <c r="R32" t="n">
-        <v>18.6065386162898</v>
+        <v>18.60653861628973</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.37582528515622</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L33" t="n">
         <v>118.55713633517</v>
@@ -37163,7 +37163,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P33" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37200,7 +37200,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.85005600306465</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -37209,19 +37209,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>17.126220327112</v>
       </c>
       <c r="F34" t="n">
-        <v>74.54009444958609</v>
+        <v>74.54009444958604</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>44.76635246655824</v>
       </c>
       <c r="H34" t="n">
-        <v>25.99857261304435</v>
+        <v>47.64391910166707</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>48.6185413322758</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37245,10 +37245,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.26261192452773</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.04379268697588</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,43 +37300,43 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.06286192646011</v>
+        <v>31.06286192645999</v>
       </c>
       <c r="J35" t="n">
-        <v>195.3065769068295</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>260.4583944746288</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>47.24579619221612</v>
+        <v>47.2457961922161</v>
       </c>
       <c r="M35" t="n">
-        <v>193.2107201759893</v>
+        <v>260.4583944746291</v>
       </c>
       <c r="N35" t="n">
-        <v>76.14873730630111</v>
+        <v>76.14873730630109</v>
       </c>
       <c r="O35" t="n">
-        <v>34.62291276103997</v>
+        <v>155.0848042387675</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>257.0160241646797</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>182.3842258679675</v>
       </c>
       <c r="R35" t="n">
-        <v>77.19923879311439</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>44.5503392747934</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59526635964706</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90916223357109</v>
+        <v>21.90916223357097</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.37582528515622</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L36" t="n">
         <v>118.55713633517</v>
@@ -37400,7 +37400,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P36" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>35.55545571552481</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37503,7 +37503,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>35.55545571552457</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.06286192646011</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>195.3065769068295</v>
+        <v>195.3065769068294</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>47.24579619221612</v>
+        <v>260.4583944746291</v>
       </c>
       <c r="M38" t="n">
-        <v>81.73768759914316</v>
+        <v>81.73768759914314</v>
       </c>
       <c r="N38" t="n">
-        <v>76.14873730630111</v>
+        <v>76.14873730630109</v>
       </c>
       <c r="O38" t="n">
-        <v>260.4583944746288</v>
+        <v>34.62291276103994</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>101.5430704619966</v>
       </c>
       <c r="Q38" t="n">
-        <v>146.0959453378861</v>
+        <v>182.3842258679675</v>
       </c>
       <c r="R38" t="n">
-        <v>77.19923879311439</v>
+        <v>77.19923879311426</v>
       </c>
       <c r="S38" t="n">
-        <v>44.5503392747934</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59526635964706</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90916223357109</v>
+        <v>21.90916223357097</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.37582528515622</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L39" t="n">
         <v>118.55713633517</v>
@@ -37637,7 +37637,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P39" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>35.55545571552481</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37728,7 +37728,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>35.55545571552457</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.2437149803694</v>
+        <v>160.2009398009229</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>234.312365400124</v>
       </c>
       <c r="L41" t="n">
-        <v>47.24579619221612</v>
+        <v>288.2426111106133</v>
       </c>
       <c r="M41" t="n">
-        <v>322.7345025175404</v>
+        <v>81.73768759914314</v>
       </c>
       <c r="N41" t="n">
         <v>317.1455522246983</v>
@@ -37795,13 +37795,13 @@
         <v>275.6197276794372</v>
       </c>
       <c r="P41" t="n">
-        <v>32.81184941251578</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.3213639415075</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.13637686665429</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>13.4874773483333</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.37582528515622</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L42" t="n">
         <v>118.55713633517</v>
@@ -37874,7 +37874,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P42" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>164.2437149803694</v>
       </c>
       <c r="K44" t="n">
-        <v>234.312365400124</v>
+        <v>47.85550209269357</v>
       </c>
       <c r="L44" t="n">
         <v>288.2426111106133</v>
@@ -38026,22 +38026,22 @@
         <v>322.7345025175404</v>
       </c>
       <c r="N44" t="n">
-        <v>317.1455522246983</v>
+        <v>76.14873730630109</v>
       </c>
       <c r="O44" t="n">
-        <v>34.62291276103997</v>
+        <v>34.62291276103994</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>225.9531622382197</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>151.3213639415075</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>46.13637686665428</v>
       </c>
       <c r="S44" t="n">
-        <v>9.444702168887011</v>
+        <v>13.4874773483333</v>
       </c>
       <c r="T44" t="n">
         <v>18.53240443318696</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.37582528515622</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L45" t="n">
         <v>118.55713633517</v>
@@ -38111,7 +38111,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P45" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38169,13 +38169,13 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>76.14837958264036</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>103.1382779979171</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>9.753997937487284</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>17.23590047778941</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
